--- a/dfstoreTotal.xlsx
+++ b/dfstoreTotal.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raymundo.AIMGROUP\Documents\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB9AD2A-8570-40AD-8BD7-545A487E19D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3567897-14BA-465A-BE30-DDEB6DB091E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4C819F2-4AF9-4A6C-ADE0-8FDD16DFA0B1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4C819F2-4AF9-4A6C-ADE0-8FDD16DFA0B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1459</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1513</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="88">
   <si>
     <t>Sales Report</t>
   </si>
@@ -272,6 +272,27 @@
   <si>
     <t>Sales Report2</t>
   </si>
+  <si>
+    <t>Magda - Area 1</t>
+  </si>
+  <si>
+    <t>Shane - Area 3</t>
+  </si>
+  <si>
+    <t>Warren - Area 2</t>
+  </si>
+  <si>
+    <t>Dariusz - Area 4</t>
+  </si>
+  <si>
+    <t>Regional Manager - Joe Beirne (Region 1)</t>
+  </si>
+  <si>
+    <t>Clonmel</t>
+  </si>
+  <si>
+    <t>Regional Manager - Nicholas Ralph ( Region 2)</t>
+  </si>
 </sst>
 </file>
 
@@ -397,7 +418,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -424,6 +445,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma 2" xfId="3" xr:uid="{F45DE0E3-DBB9-4AFC-B0C2-B846F26E68AD}"/>
@@ -440,7 +462,27 @@
     <cellStyle name="Normal 6" xfId="8" xr:uid="{717BCEFE-90CD-4474-9D4C-8AD9E64DB798}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -811,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB4736B-D2FA-4169-A4E7-16CED2D3917B}">
-  <dimension ref="A1:L1459"/>
+  <dimension ref="A1:L1513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A1495" workbookViewId="0">
+      <selection activeCell="C1507" sqref="C1507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56274,34 +56316,2090 @@
         <v>78</v>
       </c>
     </row>
+    <row r="1460" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1460" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1460" s="4">
+        <v>1020</v>
+      </c>
+      <c r="C1460" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1460" s="16">
+        <v>12609.689999999964</v>
+      </c>
+      <c r="E1460" s="16">
+        <v>12609.689999999964</v>
+      </c>
+      <c r="F1460" s="15">
+        <v>14453.559999999963</v>
+      </c>
+      <c r="G1460" s="7">
+        <v>-0.12757203069693579</v>
+      </c>
+      <c r="H1460" s="8">
+        <v>9.7560569136704474E-3</v>
+      </c>
+      <c r="I1460" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1460" s="10">
+        <v>75</v>
+      </c>
+      <c r="K1460" s="11">
+        <v>168.12919999999951</v>
+      </c>
+      <c r="L1460" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1461" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1461" s="4">
+        <v>1019</v>
+      </c>
+      <c r="C1461" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1461" s="16">
+        <v>8660.1199999999699</v>
+      </c>
+      <c r="E1461" s="16">
+        <v>8660.1199999999699</v>
+      </c>
+      <c r="F1461" s="15">
+        <v>8583.1399999999794</v>
+      </c>
+      <c r="G1461" s="7">
+        <v>8.9687457037856966E-3</v>
+      </c>
+      <c r="H1461" s="8">
+        <v>6.7002934726560015E-3</v>
+      </c>
+      <c r="I1461" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1461" s="10">
+        <v>49</v>
+      </c>
+      <c r="K1461" s="11">
+        <v>176.73714285714223</v>
+      </c>
+      <c r="L1461" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1462" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1462" s="4">
+        <v>1021</v>
+      </c>
+      <c r="C1462" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1462" s="16">
+        <v>11327.529999999955</v>
+      </c>
+      <c r="E1462" s="16">
+        <v>11327.529999999955</v>
+      </c>
+      <c r="F1462" s="15">
+        <v>11447.129999999985</v>
+      </c>
+      <c r="G1462" s="7">
+        <v>-1.0448033699279158E-2</v>
+      </c>
+      <c r="H1462" s="8">
+        <v>8.7640558468375738E-3</v>
+      </c>
+      <c r="I1462" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1462" s="10">
+        <v>68</v>
+      </c>
+      <c r="K1462" s="11">
+        <v>166.58132352941109</v>
+      </c>
+      <c r="L1462" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1463" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1463" s="4">
+        <v>1030</v>
+      </c>
+      <c r="C1463" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1463" s="16">
+        <v>25516.370000000108</v>
+      </c>
+      <c r="E1463" s="16">
+        <v>25516.370000000108</v>
+      </c>
+      <c r="F1463" s="15">
+        <v>35296.4840000002</v>
+      </c>
+      <c r="G1463" s="7">
+        <v>-0.27708465239767333</v>
+      </c>
+      <c r="H1463" s="8">
+        <v>1.9741893571552906E-2</v>
+      </c>
+      <c r="I1463" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1463" s="10">
+        <v>278</v>
+      </c>
+      <c r="K1463" s="11">
+        <v>91.785503597122684</v>
+      </c>
+      <c r="L1463" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1464" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1464" s="4">
+        <v>1043</v>
+      </c>
+      <c r="C1464" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1464" s="16">
+        <v>23518.320000000054</v>
+      </c>
+      <c r="E1464" s="16">
+        <v>23518.320000000054</v>
+      </c>
+      <c r="F1464" s="15">
+        <v>30809.561000000649</v>
+      </c>
+      <c r="G1464" s="7">
+        <v>-0.23665514091552431</v>
+      </c>
+      <c r="H1464" s="8">
+        <v>1.8196011831687783E-2</v>
+      </c>
+      <c r="I1464" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1464" s="10">
+        <v>288</v>
+      </c>
+      <c r="K1464" s="11">
+        <v>81.660833333333528</v>
+      </c>
+      <c r="L1464" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1465" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1465" s="4">
+        <v>1046</v>
+      </c>
+      <c r="C1465" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1465" s="16">
+        <v>6642.5199999999868</v>
+      </c>
+      <c r="E1465" s="16">
+        <v>6642.5199999999868</v>
+      </c>
+      <c r="F1465" s="15">
+        <v>12922.108999999993</v>
+      </c>
+      <c r="G1465" s="7">
+        <v>-0.4859569749798589</v>
+      </c>
+      <c r="H1465" s="8">
+        <v>5.1392859911856895E-3</v>
+      </c>
+      <c r="I1465" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1465" s="10">
+        <v>159</v>
+      </c>
+      <c r="K1465" s="11">
+        <v>41.776855345911869</v>
+      </c>
+      <c r="L1465" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1466" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1466" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C1466" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1466" s="16">
+        <v>10327.639999999956</v>
+      </c>
+      <c r="E1466" s="16">
+        <v>10327.639999999956</v>
+      </c>
+      <c r="F1466" s="15">
+        <v>11205.361999999959</v>
+      </c>
+      <c r="G1466" s="7">
+        <v>-7.8330534970669108E-2</v>
+      </c>
+      <c r="H1466" s="8">
+        <v>7.9904457305373343E-3</v>
+      </c>
+      <c r="I1466" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1466" s="10">
+        <v>184</v>
+      </c>
+      <c r="K1466" s="11">
+        <v>56.128478260869322</v>
+      </c>
+      <c r="L1466" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1467" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1467" s="4">
+        <v>1047</v>
+      </c>
+      <c r="C1467" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1467" s="16">
+        <v>23671.920000000082</v>
+      </c>
+      <c r="E1467" s="16">
+        <v>23671.920000000082</v>
+      </c>
+      <c r="F1467" s="15">
+        <v>32922.949000000699</v>
+      </c>
+      <c r="G1467" s="7">
+        <v>-0.28099029038985601</v>
+      </c>
+      <c r="H1467" s="8">
+        <v>1.8314851417906005E-2</v>
+      </c>
+      <c r="I1467" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1467" s="10">
+        <v>249</v>
+      </c>
+      <c r="K1467" s="11">
+        <v>95.06795180722925</v>
+      </c>
+      <c r="L1467" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1468" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1468" s="4">
+        <v>1011</v>
+      </c>
+      <c r="C1468" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1468" s="16">
+        <v>28510.400000000216</v>
+      </c>
+      <c r="E1468" s="16">
+        <v>28510.400000000216</v>
+      </c>
+      <c r="F1468" s="15">
+        <v>29486.084000000625</v>
+      </c>
+      <c r="G1468" s="7">
+        <v>-3.308964323646324E-2</v>
+      </c>
+      <c r="H1468" s="8">
+        <v>2.2058360279397258E-2</v>
+      </c>
+      <c r="I1468" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1468" s="10">
+        <v>293</v>
+      </c>
+      <c r="K1468" s="11">
+        <v>97.305119453925656</v>
+      </c>
+      <c r="L1468" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1469" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1469" s="4">
+        <v>1059</v>
+      </c>
+      <c r="C1469" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1469" s="16">
+        <v>22306.260000000115</v>
+      </c>
+      <c r="E1469" s="16">
+        <v>22306.260000000115</v>
+      </c>
+      <c r="F1469" s="15">
+        <v>28449.712000000123</v>
+      </c>
+      <c r="G1469" s="7">
+        <v>-0.21594074484831272</v>
+      </c>
+      <c r="H1469" s="8">
+        <v>1.7258246799971472E-2</v>
+      </c>
+      <c r="I1469" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1469" s="10">
+        <v>273</v>
+      </c>
+      <c r="K1469" s="11">
+        <v>81.707912087912504</v>
+      </c>
+      <c r="L1469" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1470" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1470" s="4">
+        <v>1063</v>
+      </c>
+      <c r="C1470" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1470" s="16">
+        <v>15980.359999999891</v>
+      </c>
+      <c r="E1470" s="16">
+        <v>15980.359999999891</v>
+      </c>
+      <c r="F1470" s="15">
+        <v>18221.86800000017</v>
+      </c>
+      <c r="G1470" s="7">
+        <v>-0.12301197659868113</v>
+      </c>
+      <c r="H1470" s="8">
+        <v>1.236392819022054E-2</v>
+      </c>
+      <c r="I1470" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1470" s="10">
+        <v>236</v>
+      </c>
+      <c r="K1470" s="11">
+        <v>67.713389830508021</v>
+      </c>
+      <c r="L1470" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1471" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1471" s="4">
+        <v>1065</v>
+      </c>
+      <c r="C1471" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1471" s="16">
+        <v>14731.909999999923</v>
+      </c>
+      <c r="E1471" s="16">
+        <v>14731.909999999923</v>
+      </c>
+      <c r="F1471" s="15">
+        <v>15962.001999999962</v>
+      </c>
+      <c r="G1471" s="7">
+        <v>-7.7063766813213141E-2</v>
+      </c>
+      <c r="H1471" s="8">
+        <v>1.1398008389347436E-2</v>
+      </c>
+      <c r="I1471" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1471" s="10">
+        <v>232</v>
+      </c>
+      <c r="K1471" s="11">
+        <v>63.499612068965185</v>
+      </c>
+      <c r="L1471" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1472" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1472" s="4">
+        <v>1013</v>
+      </c>
+      <c r="C1472" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1472" s="16">
+        <v>28404.780000000188</v>
+      </c>
+      <c r="E1472" s="16">
+        <v>28404.780000000188</v>
+      </c>
+      <c r="F1472" s="15">
+        <v>30425.976000000686</v>
+      </c>
+      <c r="G1472" s="7">
+        <v>-6.6429947884020346E-2</v>
+      </c>
+      <c r="H1472" s="8">
+        <v>2.1976642589967767E-2</v>
+      </c>
+      <c r="I1472" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1472" s="10">
+        <v>401</v>
+      </c>
+      <c r="K1472" s="11">
+        <v>70.83486284289323</v>
+      </c>
+      <c r="L1472" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1473" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1473" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C1473" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1473" s="16">
+        <v>17076.909999999974</v>
+      </c>
+      <c r="E1473" s="16">
+        <v>17076.909999999974</v>
+      </c>
+      <c r="F1473" s="15">
+        <v>15060.38099999989</v>
+      </c>
+      <c r="G1473" s="7">
+        <v>0.13389628057883129</v>
+      </c>
+      <c r="H1473" s="8">
+        <v>1.3212323686754252E-2</v>
+      </c>
+      <c r="I1473" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1473" s="10">
+        <v>163</v>
+      </c>
+      <c r="K1473" s="11">
+        <v>104.76631901840476</v>
+      </c>
+      <c r="L1473" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1474" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1474" s="4">
+        <v>1066</v>
+      </c>
+      <c r="C1474" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1474" s="16">
+        <v>27399.550000000178</v>
+      </c>
+      <c r="E1474" s="16">
+        <v>27399.550000000178</v>
+      </c>
+      <c r="F1474" s="15">
+        <v>36356.453000000023</v>
+      </c>
+      <c r="G1474" s="7">
+        <v>-0.24636349976164729</v>
+      </c>
+      <c r="H1474" s="8">
+        <v>2.1198900941177903E-2</v>
+      </c>
+      <c r="I1474" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1474" s="10">
+        <v>373</v>
+      </c>
+      <c r="K1474" s="11">
+        <v>73.457238605898596</v>
+      </c>
+      <c r="L1474" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1475" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1475" s="4">
+        <v>1061</v>
+      </c>
+      <c r="C1475" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1475" s="16">
+        <v>8115.3199999999624</v>
+      </c>
+      <c r="E1475" s="16">
+        <v>8115.3199999999624</v>
+      </c>
+      <c r="F1475" s="15">
+        <v>9667.822999999973</v>
+      </c>
+      <c r="G1475" s="7">
+        <v>-0.16058454938614564</v>
+      </c>
+      <c r="H1475" s="8">
+        <v>6.2787843152883145E-3</v>
+      </c>
+      <c r="I1475" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1475" s="10">
+        <v>97</v>
+      </c>
+      <c r="K1475" s="11">
+        <v>83.663092783504766</v>
+      </c>
+      <c r="L1475" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1476" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1476" s="4">
+        <v>1023</v>
+      </c>
+      <c r="C1476" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1476" s="16">
+        <v>9554.9199999999473</v>
+      </c>
+      <c r="E1476" s="16">
+        <v>9554.9199999999473</v>
+      </c>
+      <c r="F1476" s="15">
+        <v>11450.563999999968</v>
+      </c>
+      <c r="G1476" s="7">
+        <v>-0.16555027333151673</v>
+      </c>
+      <c r="H1476" s="8">
+        <v>7.3925959579948259E-3</v>
+      </c>
+      <c r="I1476" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1476" s="10">
+        <v>122</v>
+      </c>
+      <c r="K1476" s="11">
+        <v>78.319016393442197</v>
+      </c>
+      <c r="L1476" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1477" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1477" s="4">
+        <v>1068</v>
+      </c>
+      <c r="C1477" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1477" s="16">
+        <v>16416.279999999919</v>
+      </c>
+      <c r="E1477" s="16">
+        <v>16416.279999999919</v>
+      </c>
+      <c r="F1477" s="15">
+        <v>19851.500000000044</v>
+      </c>
+      <c r="G1477" s="7">
+        <v>-0.17304586555172741</v>
+      </c>
+      <c r="H1477" s="8">
+        <v>1.2701197411732529E-2</v>
+      </c>
+      <c r="I1477" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1477" s="10">
+        <v>255</v>
+      </c>
+      <c r="K1477" s="11">
+        <v>64.377568627450657</v>
+      </c>
+      <c r="L1477" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1478" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1478" s="4">
+        <v>1017</v>
+      </c>
+      <c r="C1478" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1478" s="16">
+        <v>20467.479999999989</v>
+      </c>
+      <c r="E1478" s="16">
+        <v>20467.479999999989</v>
+      </c>
+      <c r="F1478" s="15">
+        <v>21431.639000000258</v>
+      </c>
+      <c r="G1478" s="7">
+        <v>-4.4987646535118331E-2</v>
+      </c>
+      <c r="H1478" s="8">
+        <v>1.5835591498237631E-2</v>
+      </c>
+      <c r="I1478" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1478" s="10">
+        <v>157</v>
+      </c>
+      <c r="K1478" s="11">
+        <v>130.36611464968146</v>
+      </c>
+      <c r="L1478" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1479" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1479" s="4">
+        <v>1040</v>
+      </c>
+      <c r="C1479" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1479" s="16">
+        <v>22950.260000000035</v>
+      </c>
+      <c r="E1479" s="16">
+        <v>22950.260000000035</v>
+      </c>
+      <c r="F1479" s="15">
+        <v>24349.300000000501</v>
+      </c>
+      <c r="G1479" s="7">
+        <v>-5.7457093222410438E-2</v>
+      </c>
+      <c r="H1479" s="8">
+        <v>1.7756506523438347E-2</v>
+      </c>
+      <c r="I1479" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1479" s="10">
+        <v>322</v>
+      </c>
+      <c r="K1479" s="11">
+        <v>71.274099378882099</v>
+      </c>
+      <c r="L1479" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1480" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1480" s="4">
+        <v>1027</v>
+      </c>
+      <c r="C1480" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1480" s="16">
+        <v>53109.950000000055</v>
+      </c>
+      <c r="E1480" s="16">
+        <v>53109.950000000055</v>
+      </c>
+      <c r="F1480" s="15">
+        <v>64035.259000000107</v>
+      </c>
+      <c r="G1480" s="7">
+        <v>-0.17061395816326808</v>
+      </c>
+      <c r="H1480" s="8">
+        <v>4.1090914596805611E-2</v>
+      </c>
+      <c r="I1480" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1480" s="10">
+        <v>322</v>
+      </c>
+      <c r="K1480" s="11">
+        <v>164.93773291925484</v>
+      </c>
+      <c r="L1480" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1481" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1481" s="4">
+        <v>1044</v>
+      </c>
+      <c r="C1481" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1481" s="16">
+        <v>10090.079999999964</v>
+      </c>
+      <c r="E1481" s="16">
+        <v>10090.079999999964</v>
+      </c>
+      <c r="F1481" s="15">
+        <v>18935.917000000311</v>
+      </c>
+      <c r="G1481" s="7">
+        <v>-0.46714595337528153</v>
+      </c>
+      <c r="H1481" s="8">
+        <v>7.8066466934149708E-3</v>
+      </c>
+      <c r="I1481" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1481" s="10">
+        <v>216</v>
+      </c>
+      <c r="K1481" s="11">
+        <v>46.713333333333168</v>
+      </c>
+      <c r="L1481" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1482" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1482" s="4">
+        <v>1048</v>
+      </c>
+      <c r="C1482" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1482" s="16">
+        <v>25884.530000000155</v>
+      </c>
+      <c r="E1482" s="16">
+        <v>25884.530000000155</v>
+      </c>
+      <c r="F1482" s="15">
+        <v>30913.322000000648</v>
+      </c>
+      <c r="G1482" s="7">
+        <v>-0.16267394361564858</v>
+      </c>
+      <c r="H1482" s="8">
+        <v>2.002673720476969E-2</v>
+      </c>
+      <c r="I1482" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1482" s="10">
+        <v>275</v>
+      </c>
+      <c r="K1482" s="11">
+        <v>94.125563636364205</v>
+      </c>
+      <c r="L1482" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1483" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1483" s="4">
+        <v>1031</v>
+      </c>
+      <c r="C1483" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1483" s="16">
+        <v>64069.049999999952</v>
+      </c>
+      <c r="E1483" s="16">
+        <v>64069.049999999952</v>
+      </c>
+      <c r="F1483" s="15">
+        <v>80547.125000001921</v>
+      </c>
+      <c r="G1483" s="7">
+        <v>-0.20457682381589137</v>
+      </c>
+      <c r="H1483" s="8">
+        <v>4.9569917912716241E-2</v>
+      </c>
+      <c r="I1483" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1483" s="10">
+        <v>536</v>
+      </c>
+      <c r="K1483" s="11">
+        <v>119.53180970149245</v>
+      </c>
+      <c r="L1483" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1484" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1484" s="4">
+        <v>1042</v>
+      </c>
+      <c r="C1484" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1484" s="16">
+        <v>16068.949999999921</v>
+      </c>
+      <c r="E1484" s="16">
+        <v>16068.949999999921</v>
+      </c>
+      <c r="F1484" s="15">
+        <v>16128.174999999957</v>
+      </c>
+      <c r="G1484" s="7">
+        <v>-3.6721451745183042E-3</v>
+      </c>
+      <c r="H1484" s="8">
+        <v>1.2432469850006178E-2</v>
+      </c>
+      <c r="I1484" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1484" s="10">
+        <v>130</v>
+      </c>
+      <c r="K1484" s="11">
+        <v>123.60730769230709</v>
+      </c>
+      <c r="L1484" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1485" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1485" s="4">
+        <v>1025</v>
+      </c>
+      <c r="C1485" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1485" s="16">
+        <v>26143.800000000119</v>
+      </c>
+      <c r="E1485" s="16">
+        <v>26143.800000000119</v>
+      </c>
+      <c r="F1485" s="15">
+        <v>30592.021000000594</v>
+      </c>
+      <c r="G1485" s="7">
+        <v>-0.14540461383706516</v>
+      </c>
+      <c r="H1485" s="8">
+        <v>2.0227333165178472E-2</v>
+      </c>
+      <c r="I1485" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1485" s="10">
+        <v>359</v>
+      </c>
+      <c r="K1485" s="11">
+        <v>72.823955431755209</v>
+      </c>
+      <c r="L1485" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1486" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1486" s="4">
+        <v>1067</v>
+      </c>
+      <c r="C1486" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1486" s="16">
+        <v>29482.05000000021</v>
+      </c>
+      <c r="E1486" s="16">
+        <v>29482.05000000021</v>
+      </c>
+      <c r="F1486" s="15">
+        <v>29344.570000000698</v>
+      </c>
+      <c r="G1486" s="7">
+        <v>4.6850234983681904E-3</v>
+      </c>
+      <c r="H1486" s="8">
+        <v>2.2810121242606334E-2</v>
+      </c>
+      <c r="I1486" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1486" s="10">
+        <v>418</v>
+      </c>
+      <c r="K1486" s="11">
+        <v>70.53122009569428</v>
+      </c>
+      <c r="L1486" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1487" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1487" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C1487" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1487" s="16">
+        <v>57569.050000000076</v>
+      </c>
+      <c r="E1487" s="16">
+        <v>57569.050000000076</v>
+      </c>
+      <c r="F1487" s="15">
+        <v>77791.279000001639</v>
+      </c>
+      <c r="G1487" s="7">
+        <v>-0.25995496230369397</v>
+      </c>
+      <c r="H1487" s="8">
+        <v>4.4540898964680498E-2</v>
+      </c>
+      <c r="I1487" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1487" s="10">
+        <v>337</v>
+      </c>
+      <c r="K1487" s="11">
+        <v>170.82804154302693</v>
+      </c>
+      <c r="L1487" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1488" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1488" s="4">
+        <v>1010</v>
+      </c>
+      <c r="C1488" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1488" s="16">
+        <v>7998.53999999997</v>
+      </c>
+      <c r="E1488" s="16">
+        <v>7998.53999999997</v>
+      </c>
+      <c r="F1488" s="15">
+        <v>8373.7869999999348</v>
+      </c>
+      <c r="G1488" s="7">
+        <v>-4.4812102337922877E-2</v>
+      </c>
+      <c r="H1488" s="8">
+        <v>6.188432187172686E-3</v>
+      </c>
+      <c r="I1488" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1488" s="10">
+        <v>125</v>
+      </c>
+      <c r="K1488" s="11">
+        <v>63.98831999999976</v>
+      </c>
+      <c r="L1488" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1489" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1489" s="4">
+        <v>1032</v>
+      </c>
+      <c r="C1489" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1489" s="16">
+        <v>18286.37999999999</v>
+      </c>
+      <c r="E1489" s="16">
+        <v>18286.37999999999</v>
+      </c>
+      <c r="F1489" s="15">
+        <v>22220.365000000391</v>
+      </c>
+      <c r="G1489" s="7">
+        <v>-0.17704412146246618</v>
+      </c>
+      <c r="H1489" s="8">
+        <v>1.4148084847843634E-2</v>
+      </c>
+      <c r="I1489" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1489" s="10">
+        <v>211</v>
+      </c>
+      <c r="K1489" s="11">
+        <v>86.665308056871993</v>
+      </c>
+      <c r="L1489" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1490" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1490" s="4">
+        <v>1054</v>
+      </c>
+      <c r="C1490" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1490" s="16">
+        <v>33915.210000000334</v>
+      </c>
+      <c r="E1490" s="16">
+        <v>33915.210000000334</v>
+      </c>
+      <c r="F1490" s="15">
+        <v>38994.588999999964</v>
+      </c>
+      <c r="G1490" s="7">
+        <v>-0.13025855971964817</v>
+      </c>
+      <c r="H1490" s="8">
+        <v>2.6240035956402518E-2</v>
+      </c>
+      <c r="I1490" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1490" s="10">
+        <v>312</v>
+      </c>
+      <c r="K1490" s="11">
+        <v>108.70259615384722</v>
+      </c>
+      <c r="L1490" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1491" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1491" s="4">
+        <v>1033</v>
+      </c>
+      <c r="C1491" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1491" s="16">
+        <v>58273.500000000189</v>
+      </c>
+      <c r="E1491" s="16">
+        <v>58273.500000000189</v>
+      </c>
+      <c r="F1491" s="15">
+        <v>65247.182000000001</v>
+      </c>
+      <c r="G1491" s="7">
+        <v>-0.10688096843783712</v>
+      </c>
+      <c r="H1491" s="8">
+        <v>4.5085928564364254E-2</v>
+      </c>
+      <c r="I1491" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1491" s="10">
+        <v>436</v>
+      </c>
+      <c r="K1491" s="11">
+        <v>133.65481651376192</v>
+      </c>
+      <c r="L1491" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1492" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1492" s="4">
+        <v>1062</v>
+      </c>
+      <c r="C1492" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1492" s="16">
+        <v>5878.0899999999765</v>
+      </c>
+      <c r="E1492" s="16">
+        <v>5878.0899999999765</v>
+      </c>
+      <c r="F1492" s="15">
+        <v>5363.2939999999753</v>
+      </c>
+      <c r="G1492" s="7">
+        <v>9.5985042028276624E-2</v>
+      </c>
+      <c r="H1492" s="8">
+        <v>4.547850152039983E-3</v>
+      </c>
+      <c r="I1492" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1492" s="10">
+        <v>67</v>
+      </c>
+      <c r="K1492" s="11">
+        <v>87.732686567163825</v>
+      </c>
+      <c r="L1492" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1493" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1493" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C1493" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1493" s="16">
+        <v>51387.860000000146</v>
+      </c>
+      <c r="E1493" s="16">
+        <v>51387.860000000146</v>
+      </c>
+      <c r="F1493" s="15">
+        <v>54969.561999999918</v>
+      </c>
+      <c r="G1493" s="7">
+        <v>-6.5157914119813753E-2</v>
+      </c>
+      <c r="H1493" s="8">
+        <v>3.9758541790617524E-2</v>
+      </c>
+      <c r="I1493" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1493" s="10">
+        <v>245</v>
+      </c>
+      <c r="K1493" s="11">
+        <v>209.74636734693937</v>
+      </c>
+      <c r="L1493" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1494" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1494" s="4">
+        <v>1024</v>
+      </c>
+      <c r="C1494" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1494" s="16">
+        <v>29413.310000000209</v>
+      </c>
+      <c r="E1494" s="16">
+        <v>29413.310000000209</v>
+      </c>
+      <c r="F1494" s="15">
+        <v>38853.465999999811</v>
+      </c>
+      <c r="G1494" s="7">
+        <v>-0.24296818204068715</v>
+      </c>
+      <c r="H1494" s="8">
+        <v>2.2756937432992796E-2</v>
+      </c>
+      <c r="I1494" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1494" s="10">
+        <v>374</v>
+      </c>
+      <c r="K1494" s="11">
+        <v>78.64521390374388</v>
+      </c>
+      <c r="L1494" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1495" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1495" s="4">
+        <v>1058</v>
+      </c>
+      <c r="C1495" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1495" s="16">
+        <v>19787.810000000012</v>
+      </c>
+      <c r="E1495" s="16">
+        <v>19787.810000000012</v>
+      </c>
+      <c r="F1495" s="15">
+        <v>28469.587000000443</v>
+      </c>
+      <c r="G1495" s="7">
+        <v>-0.30494917260304111</v>
+      </c>
+      <c r="H1495" s="8">
+        <v>1.5309734066174337E-2</v>
+      </c>
+      <c r="I1495" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1495" s="10">
+        <v>302</v>
+      </c>
+      <c r="K1495" s="11">
+        <v>65.52254966887422</v>
+      </c>
+      <c r="L1495" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1496" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1496" s="4">
+        <v>1053</v>
+      </c>
+      <c r="C1496" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1496" s="16">
+        <v>22284.820000000022</v>
+      </c>
+      <c r="E1496" s="16">
+        <v>22284.820000000022</v>
+      </c>
+      <c r="F1496" s="15">
+        <v>29193.235000000601</v>
+      </c>
+      <c r="G1496" s="7">
+        <v>-0.23664438011068101</v>
+      </c>
+      <c r="H1496" s="8">
+        <v>1.7241658774395111E-2</v>
+      </c>
+      <c r="I1496" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1496" s="10">
+        <v>219</v>
+      </c>
+      <c r="K1496" s="11">
+        <v>101.75716894977178</v>
+      </c>
+      <c r="L1496" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1497" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1497" s="4">
+        <v>1028</v>
+      </c>
+      <c r="C1497" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1497" s="16">
+        <v>45175.710000000065</v>
+      </c>
+      <c r="E1497" s="16">
+        <v>45175.710000000065</v>
+      </c>
+      <c r="F1497" s="15">
+        <v>63727.027999999897</v>
+      </c>
+      <c r="G1497" s="7">
+        <v>-0.29110596527426102</v>
+      </c>
+      <c r="H1497" s="8">
+        <v>3.4952231012457327E-2</v>
+      </c>
+      <c r="I1497" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1497" s="10">
+        <v>414</v>
+      </c>
+      <c r="K1497" s="11">
+        <v>109.12007246376827</v>
+      </c>
+      <c r="L1497" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1498" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1498" s="4">
+        <v>1026</v>
+      </c>
+      <c r="C1498" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1498" s="16">
+        <v>8683.7399999999834</v>
+      </c>
+      <c r="E1498" s="16">
+        <v>8683.7399999999834</v>
+      </c>
+      <c r="F1498" s="15">
+        <v>12507.925999999998</v>
+      </c>
+      <c r="G1498" s="7">
+        <v>-0.30574101573674284</v>
+      </c>
+      <c r="H1498" s="8">
+        <v>6.7185681538179517E-3</v>
+      </c>
+      <c r="I1498" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1498" s="10">
+        <v>255</v>
+      </c>
+      <c r="K1498" s="11">
+        <v>34.053882352941109</v>
+      </c>
+      <c r="L1498" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1499" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1499" s="4">
+        <v>1052</v>
+      </c>
+      <c r="C1499" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1499" s="16">
+        <v>5025.6499999999733</v>
+      </c>
+      <c r="E1499" s="16">
+        <v>5025.6499999999733</v>
+      </c>
+      <c r="F1499" s="15">
+        <v>4402.370999999971</v>
+      </c>
+      <c r="G1499" s="7">
+        <v>0.1415780269313982</v>
+      </c>
+      <c r="H1499" s="8">
+        <v>3.8883213963378767E-3</v>
+      </c>
+      <c r="I1499" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1499" s="10">
+        <v>125</v>
+      </c>
+      <c r="K1499" s="11">
+        <v>40.205199999999785</v>
+      </c>
+      <c r="L1499" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1500" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1500" s="4">
+        <v>1060</v>
+      </c>
+      <c r="C1500" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1500" s="16">
+        <v>18542.189999999999</v>
+      </c>
+      <c r="E1500" s="16">
+        <v>18542.189999999999</v>
+      </c>
+      <c r="F1500" s="15">
+        <v>17562.409000000131</v>
+      </c>
+      <c r="G1500" s="7">
+        <v>5.5788531060850577E-2</v>
+      </c>
+      <c r="H1500" s="8">
+        <v>1.4346003822781648E-2</v>
+      </c>
+      <c r="I1500" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1500" s="10">
+        <v>344</v>
+      </c>
+      <c r="K1500" s="11">
+        <v>53.901715116279064</v>
+      </c>
+      <c r="L1500" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1501" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1501" s="4">
+        <v>1016</v>
+      </c>
+      <c r="C1501" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1501" s="16">
+        <v>72567.08000000022</v>
+      </c>
+      <c r="E1501" s="16">
+        <v>72567.08000000022</v>
+      </c>
+      <c r="F1501" s="15">
+        <v>76110.788000001718</v>
+      </c>
+      <c r="G1501" s="7">
+        <v>-4.6559864811824281E-2</v>
+      </c>
+      <c r="H1501" s="8">
+        <v>5.6144803126712918E-2</v>
+      </c>
+      <c r="I1501" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1501" s="10">
+        <v>628</v>
+      </c>
+      <c r="K1501" s="11">
+        <v>115.55267515923602</v>
+      </c>
+      <c r="L1501" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1502" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1502" s="4">
+        <v>1055</v>
+      </c>
+      <c r="C1502" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1502" s="16">
+        <v>15862.169999999904</v>
+      </c>
+      <c r="E1502" s="16">
+        <v>15862.169999999904</v>
+      </c>
+      <c r="F1502" s="15">
+        <v>15026.653999999948</v>
+      </c>
+      <c r="G1502" s="7">
+        <v>5.5602265148313013E-2</v>
+      </c>
+      <c r="H1502" s="8">
+        <v>1.2272485151840803E-2</v>
+      </c>
+      <c r="I1502" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1502" s="10">
+        <v>290</v>
+      </c>
+      <c r="K1502" s="11">
+        <v>54.697137931034149</v>
+      </c>
+      <c r="L1502" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1503" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1503" s="4">
+        <v>1056</v>
+      </c>
+      <c r="C1503" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1503" s="16">
+        <v>5207.2099999999791</v>
+      </c>
+      <c r="E1503" s="16">
+        <v>5207.2099999999791</v>
+      </c>
+      <c r="F1503" s="15">
+        <v>4971.82599999998</v>
+      </c>
+      <c r="G1503" s="7">
+        <v>4.7343571557009412E-2</v>
+      </c>
+      <c r="H1503" s="8">
+        <v>4.028793500984864E-3</v>
+      </c>
+      <c r="I1503" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1503" s="10">
+        <v>95</v>
+      </c>
+      <c r="K1503" s="11">
+        <v>54.812736842105046</v>
+      </c>
+      <c r="L1503" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1504" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1504" s="4">
+        <v>1015</v>
+      </c>
+      <c r="C1504" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1504" s="16">
+        <v>39762.720000000139</v>
+      </c>
+      <c r="E1504" s="16">
+        <v>39762.720000000139</v>
+      </c>
+      <c r="F1504" s="15">
+        <v>51640.531999999905</v>
+      </c>
+      <c r="G1504" s="7">
+        <v>-0.23000948169937108</v>
+      </c>
+      <c r="H1504" s="8">
+        <v>3.0764226508529918E-2</v>
+      </c>
+      <c r="I1504" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1504" s="10">
+        <v>350</v>
+      </c>
+      <c r="K1504" s="11">
+        <v>113.60777142857182</v>
+      </c>
+      <c r="L1504" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1505" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1505" s="4">
+        <v>1049</v>
+      </c>
+      <c r="C1505" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1505" s="16">
+        <v>26533.720000000183</v>
+      </c>
+      <c r="E1505" s="16">
+        <v>26533.720000000183</v>
+      </c>
+      <c r="F1505" s="15">
+        <v>26405.091000000539</v>
+      </c>
+      <c r="G1505" s="7">
+        <v>4.8713712063950254E-3</v>
+      </c>
+      <c r="H1505" s="8">
+        <v>2.0529012406442851E-2</v>
+      </c>
+      <c r="I1505" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1505" s="10">
+        <v>293</v>
+      </c>
+      <c r="K1505" s="11">
+        <v>90.558771331058651</v>
+      </c>
+      <c r="L1505" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1506" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1506" s="4">
+        <v>1029</v>
+      </c>
+      <c r="C1506" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1506" s="16">
+        <v>26389.280000000181</v>
+      </c>
+      <c r="E1506" s="16">
+        <v>26389.280000000181</v>
+      </c>
+      <c r="F1506" s="15">
+        <v>39113.598999999915</v>
+      </c>
+      <c r="G1506" s="7">
+        <v>-0.32531700803088359</v>
+      </c>
+      <c r="H1506" s="8">
+        <v>2.0417259868465265E-2</v>
+      </c>
+      <c r="I1506" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1506" s="10">
+        <v>310</v>
+      </c>
+      <c r="K1506" s="11">
+        <v>85.126709677419939</v>
+      </c>
+      <c r="L1506" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1507" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1507" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C1507" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1507" s="16">
+        <v>68485.110000000088</v>
+      </c>
+      <c r="E1507" s="16">
+        <v>68485.110000000088</v>
+      </c>
+      <c r="F1507" s="15">
+        <v>74417.326000002082</v>
+      </c>
+      <c r="G1507" s="7">
+        <v>-7.9715522162161934E-2</v>
+      </c>
+      <c r="H1507" s="8">
+        <v>5.2986602438202988E-2</v>
+      </c>
+      <c r="I1507" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1507" s="10">
+        <v>553</v>
+      </c>
+      <c r="K1507" s="11">
+        <v>123.84287522603994</v>
+      </c>
+      <c r="L1507" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1508" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1508" s="4">
+        <v>1057</v>
+      </c>
+      <c r="C1508" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1508" s="16">
+        <v>10817.129999999974</v>
+      </c>
+      <c r="E1508" s="16">
+        <v>10817.129999999974</v>
+      </c>
+      <c r="F1508" s="15">
+        <v>14004.209000000052</v>
+      </c>
+      <c r="G1508" s="7">
+        <v>-0.22758007967462257</v>
+      </c>
+      <c r="H1508" s="8">
+        <v>8.3691618051333575E-3</v>
+      </c>
+      <c r="I1508" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1508" s="10">
+        <v>257</v>
+      </c>
+      <c r="K1508" s="11">
+        <v>42.089999999999897</v>
+      </c>
+      <c r="L1508" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1509" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1509" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C1509" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1509" s="16">
+        <v>16545.509999999922</v>
+      </c>
+      <c r="E1509" s="16">
+        <v>16545.509999999922</v>
+      </c>
+      <c r="F1509" s="15">
+        <v>17816.718000000074</v>
+      </c>
+      <c r="G1509" s="7">
+        <v>-7.1349167674997549E-2</v>
+      </c>
+      <c r="H1509" s="8">
+        <v>1.2801182045371711E-2</v>
+      </c>
+      <c r="I1509" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1509" s="10">
+        <v>183</v>
+      </c>
+      <c r="K1509" s="11">
+        <v>90.412622950819241</v>
+      </c>
+      <c r="L1509" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1510" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1510" s="4">
+        <v>1012</v>
+      </c>
+      <c r="C1510" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1510" s="16">
+        <v>26626.750000000047</v>
+      </c>
+      <c r="E1510" s="16">
+        <v>26626.750000000047</v>
+      </c>
+      <c r="F1510" s="15">
+        <v>46152.87400000004</v>
+      </c>
+      <c r="G1510" s="7">
+        <v>-0.42307493136830387</v>
+      </c>
+      <c r="H1510" s="8">
+        <v>2.060098927301748E-2</v>
+      </c>
+      <c r="I1510" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1510" s="10">
+        <v>296</v>
+      </c>
+      <c r="K1510" s="11">
+        <v>89.955236486486641</v>
+      </c>
+      <c r="L1510" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1511" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1511" s="4">
+        <v>1014</v>
+      </c>
+      <c r="C1511" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1511" s="16">
+        <v>17997.979999999967</v>
+      </c>
+      <c r="E1511" s="16">
+        <v>17997.979999999967</v>
+      </c>
+      <c r="F1511" s="15">
+        <v>25672.326000000357</v>
+      </c>
+      <c r="G1511" s="7">
+        <v>-0.29893458037266607</v>
+      </c>
+      <c r="H1511" s="8">
+        <v>1.3924951145595379E-2</v>
+      </c>
+      <c r="I1511" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1511" s="10">
+        <v>178</v>
+      </c>
+      <c r="K1511" s="11">
+        <v>101.11224719101105</v>
+      </c>
+      <c r="L1511" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1512" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1512" s="4">
+        <v>1050</v>
+      </c>
+      <c r="C1512" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1512" s="16">
+        <v>4445.1399999999903</v>
+      </c>
+      <c r="E1512" s="16">
+        <v>4445.1399999999903</v>
+      </c>
+      <c r="F1512" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1512" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1512" s="8">
+        <v>3.4391835825649227E-3</v>
+      </c>
+      <c r="I1512" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1512" s="10">
+        <v>178</v>
+      </c>
+      <c r="K1512" s="11">
+        <v>24.972696629213427</v>
+      </c>
+      <c r="L1512" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1513" s="18">
+        <v>29</v>
+      </c>
+      <c r="B1513" s="4">
+        <v>1045</v>
+      </c>
+      <c r="C1513" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1513" s="16">
+        <v>0</v>
+      </c>
+      <c r="E1513" s="16">
+        <v>0</v>
+      </c>
+      <c r="F1513" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1513" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1513" s="8">
+        <v>0</v>
+      </c>
+      <c r="I1513" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1513" s="10">
+        <v>178</v>
+      </c>
+      <c r="K1513" s="11">
+        <v>0</v>
+      </c>
+      <c r="L1513" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L1459" xr:uid="{CBB4736B-D2FA-4169-A4E7-16CED2D3917B}"/>
   <conditionalFormatting sqref="G1:G53">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106:G313">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470:G521">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G574:G625">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G990:G1041">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1354:G1459">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1460:G1513">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/dfstoreTotal.xlsx
+++ b/dfstoreTotal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raymundo.AIMGROUP\Documents\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3567897-14BA-465A-BE30-DDEB6DB091E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F5AF17-36A1-4F62-B619-43CC1DED2599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4C819F2-4AF9-4A6C-ADE0-8FDD16DFA0B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4C819F2-4AF9-4A6C-ADE0-8FDD16DFA0B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -391,17 +391,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -418,7 +407,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,8 +433,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma 2" xfId="3" xr:uid="{F45DE0E3-DBB9-4AFC-B0C2-B846F26E68AD}"/>
@@ -462,27 +449,7 @@
     <cellStyle name="Normal 6" xfId="8" xr:uid="{717BCEFE-90CD-4474-9D4C-8AD9E64DB798}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -855,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB4736B-D2FA-4169-A4E7-16CED2D3917B}">
   <dimension ref="A1:L1513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1495" workbookViewId="0">
-      <selection activeCell="C1507" sqref="C1507"/>
+    <sheetView tabSelected="1" topLeftCell="A1478" workbookViewId="0">
+      <selection activeCell="A1512" sqref="A1512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54303,7 +54270,7 @@
       </c>
     </row>
     <row r="1407" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1407" s="17">
+      <c r="A1407" s="4">
         <v>28</v>
       </c>
       <c r="B1407" s="4">
@@ -54341,7 +54308,7 @@
       </c>
     </row>
     <row r="1408" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1408" s="17">
+      <c r="A1408" s="4">
         <v>28</v>
       </c>
       <c r="B1408" s="4">
@@ -54379,7 +54346,7 @@
       </c>
     </row>
     <row r="1409" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1409" s="17">
+      <c r="A1409" s="4">
         <v>28</v>
       </c>
       <c r="B1409" s="4">
@@ -54417,7 +54384,7 @@
       </c>
     </row>
     <row r="1410" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1410" s="17">
+      <c r="A1410" s="4">
         <v>28</v>
       </c>
       <c r="B1410" s="4">
@@ -54455,7 +54422,7 @@
       </c>
     </row>
     <row r="1411" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1411" s="17">
+      <c r="A1411" s="4">
         <v>28</v>
       </c>
       <c r="B1411" s="4">
@@ -54493,7 +54460,7 @@
       </c>
     </row>
     <row r="1412" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1412" s="17">
+      <c r="A1412" s="4">
         <v>28</v>
       </c>
       <c r="B1412" s="4">
@@ -54531,7 +54498,7 @@
       </c>
     </row>
     <row r="1413" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1413" s="17">
+      <c r="A1413" s="4">
         <v>28</v>
       </c>
       <c r="B1413" s="4">
@@ -54569,7 +54536,7 @@
       </c>
     </row>
     <row r="1414" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1414" s="17">
+      <c r="A1414" s="4">
         <v>28</v>
       </c>
       <c r="B1414" s="4">
@@ -54607,7 +54574,7 @@
       </c>
     </row>
     <row r="1415" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1415" s="17">
+      <c r="A1415" s="4">
         <v>28</v>
       </c>
       <c r="B1415" s="4">
@@ -54645,7 +54612,7 @@
       </c>
     </row>
     <row r="1416" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1416" s="17">
+      <c r="A1416" s="4">
         <v>28</v>
       </c>
       <c r="B1416" s="4">
@@ -54683,7 +54650,7 @@
       </c>
     </row>
     <row r="1417" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1417" s="17">
+      <c r="A1417" s="4">
         <v>28</v>
       </c>
       <c r="B1417" s="4">
@@ -54721,7 +54688,7 @@
       </c>
     </row>
     <row r="1418" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1418" s="17">
+      <c r="A1418" s="4">
         <v>28</v>
       </c>
       <c r="B1418" s="4">
@@ -54759,7 +54726,7 @@
       </c>
     </row>
     <row r="1419" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1419" s="17">
+      <c r="A1419" s="4">
         <v>28</v>
       </c>
       <c r="B1419" s="4">
@@ -54797,7 +54764,7 @@
       </c>
     </row>
     <row r="1420" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1420" s="17">
+      <c r="A1420" s="4">
         <v>28</v>
       </c>
       <c r="B1420" s="4">
@@ -54835,7 +54802,7 @@
       </c>
     </row>
     <row r="1421" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1421" s="17">
+      <c r="A1421" s="4">
         <v>28</v>
       </c>
       <c r="B1421" s="4">
@@ -54873,7 +54840,7 @@
       </c>
     </row>
     <row r="1422" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1422" s="17">
+      <c r="A1422" s="4">
         <v>28</v>
       </c>
       <c r="B1422" s="4">
@@ -54911,7 +54878,7 @@
       </c>
     </row>
     <row r="1423" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1423" s="17">
+      <c r="A1423" s="4">
         <v>28</v>
       </c>
       <c r="B1423" s="4">
@@ -54949,7 +54916,7 @@
       </c>
     </row>
     <row r="1424" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1424" s="17">
+      <c r="A1424" s="4">
         <v>28</v>
       </c>
       <c r="B1424" s="4">
@@ -54987,7 +54954,7 @@
       </c>
     </row>
     <row r="1425" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1425" s="17">
+      <c r="A1425" s="4">
         <v>28</v>
       </c>
       <c r="B1425" s="4">
@@ -55025,7 +54992,7 @@
       </c>
     </row>
     <row r="1426" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1426" s="17">
+      <c r="A1426" s="4">
         <v>28</v>
       </c>
       <c r="B1426" s="4">
@@ -55063,7 +55030,7 @@
       </c>
     </row>
     <row r="1427" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1427" s="17">
+      <c r="A1427" s="4">
         <v>28</v>
       </c>
       <c r="B1427" s="4">
@@ -55101,7 +55068,7 @@
       </c>
     </row>
     <row r="1428" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1428" s="17">
+      <c r="A1428" s="4">
         <v>28</v>
       </c>
       <c r="B1428" s="4">
@@ -55139,7 +55106,7 @@
       </c>
     </row>
     <row r="1429" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1429" s="17">
+      <c r="A1429" s="4">
         <v>28</v>
       </c>
       <c r="B1429" s="4">
@@ -55177,7 +55144,7 @@
       </c>
     </row>
     <row r="1430" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1430" s="17">
+      <c r="A1430" s="4">
         <v>28</v>
       </c>
       <c r="B1430" s="4">
@@ -55215,7 +55182,7 @@
       </c>
     </row>
     <row r="1431" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1431" s="17">
+      <c r="A1431" s="4">
         <v>28</v>
       </c>
       <c r="B1431" s="4">
@@ -55253,7 +55220,7 @@
       </c>
     </row>
     <row r="1432" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1432" s="17">
+      <c r="A1432" s="4">
         <v>28</v>
       </c>
       <c r="B1432" s="4">
@@ -55291,7 +55258,7 @@
       </c>
     </row>
     <row r="1433" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1433" s="17">
+      <c r="A1433" s="4">
         <v>28</v>
       </c>
       <c r="B1433" s="4">
@@ -55329,7 +55296,7 @@
       </c>
     </row>
     <row r="1434" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1434" s="17">
+      <c r="A1434" s="4">
         <v>28</v>
       </c>
       <c r="B1434" s="4">
@@ -55367,7 +55334,7 @@
       </c>
     </row>
     <row r="1435" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1435" s="17">
+      <c r="A1435" s="4">
         <v>28</v>
       </c>
       <c r="B1435" s="4">
@@ -55405,7 +55372,7 @@
       </c>
     </row>
     <row r="1436" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1436" s="17">
+      <c r="A1436" s="4">
         <v>28</v>
       </c>
       <c r="B1436" s="4">
@@ -55443,7 +55410,7 @@
       </c>
     </row>
     <row r="1437" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1437" s="17">
+      <c r="A1437" s="4">
         <v>28</v>
       </c>
       <c r="B1437" s="4">
@@ -55481,7 +55448,7 @@
       </c>
     </row>
     <row r="1438" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1438" s="17">
+      <c r="A1438" s="4">
         <v>28</v>
       </c>
       <c r="B1438" s="4">
@@ -55519,7 +55486,7 @@
       </c>
     </row>
     <row r="1439" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1439" s="17">
+      <c r="A1439" s="4">
         <v>28</v>
       </c>
       <c r="B1439" s="4">
@@ -55557,7 +55524,7 @@
       </c>
     </row>
     <row r="1440" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1440" s="17">
+      <c r="A1440" s="4">
         <v>28</v>
       </c>
       <c r="B1440" s="4">
@@ -55595,7 +55562,7 @@
       </c>
     </row>
     <row r="1441" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1441" s="17">
+      <c r="A1441" s="4">
         <v>28</v>
       </c>
       <c r="B1441" s="4">
@@ -55633,7 +55600,7 @@
       </c>
     </row>
     <row r="1442" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1442" s="17">
+      <c r="A1442" s="4">
         <v>28</v>
       </c>
       <c r="B1442" s="4">
@@ -55671,7 +55638,7 @@
       </c>
     </row>
     <row r="1443" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1443" s="17">
+      <c r="A1443" s="4">
         <v>28</v>
       </c>
       <c r="B1443" s="4">
@@ -55709,7 +55676,7 @@
       </c>
     </row>
     <row r="1444" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1444" s="17">
+      <c r="A1444" s="4">
         <v>28</v>
       </c>
       <c r="B1444" s="4">
@@ -55747,7 +55714,7 @@
       </c>
     </row>
     <row r="1445" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1445" s="17">
+      <c r="A1445" s="4">
         <v>28</v>
       </c>
       <c r="B1445" s="4">
@@ -55785,7 +55752,7 @@
       </c>
     </row>
     <row r="1446" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1446" s="17">
+      <c r="A1446" s="4">
         <v>28</v>
       </c>
       <c r="B1446" s="4">
@@ -55823,7 +55790,7 @@
       </c>
     </row>
     <row r="1447" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1447" s="17">
+      <c r="A1447" s="4">
         <v>28</v>
       </c>
       <c r="B1447" s="4">
@@ -55861,7 +55828,7 @@
       </c>
     </row>
     <row r="1448" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1448" s="17">
+      <c r="A1448" s="4">
         <v>28</v>
       </c>
       <c r="B1448" s="4">
@@ -55899,7 +55866,7 @@
       </c>
     </row>
     <row r="1449" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1449" s="17">
+      <c r="A1449" s="4">
         <v>28</v>
       </c>
       <c r="B1449" s="4">
@@ -55937,7 +55904,7 @@
       </c>
     </row>
     <row r="1450" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1450" s="17">
+      <c r="A1450" s="4">
         <v>28</v>
       </c>
       <c r="B1450" s="4">
@@ -55975,7 +55942,7 @@
       </c>
     </row>
     <row r="1451" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1451" s="17">
+      <c r="A1451" s="4">
         <v>28</v>
       </c>
       <c r="B1451" s="4">
@@ -56013,7 +55980,7 @@
       </c>
     </row>
     <row r="1452" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1452" s="17">
+      <c r="A1452" s="4">
         <v>28</v>
       </c>
       <c r="B1452" s="4">
@@ -56051,7 +56018,7 @@
       </c>
     </row>
     <row r="1453" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1453" s="17">
+      <c r="A1453" s="4">
         <v>28</v>
       </c>
       <c r="B1453" s="4">
@@ -56089,7 +56056,7 @@
       </c>
     </row>
     <row r="1454" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1454" s="17">
+      <c r="A1454" s="4">
         <v>28</v>
       </c>
       <c r="B1454" s="4">
@@ -56127,7 +56094,7 @@
       </c>
     </row>
     <row r="1455" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1455" s="17">
+      <c r="A1455" s="4">
         <v>28</v>
       </c>
       <c r="B1455" s="4">
@@ -56165,7 +56132,7 @@
       </c>
     </row>
     <row r="1456" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1456" s="17">
+      <c r="A1456" s="4">
         <v>28</v>
       </c>
       <c r="B1456" s="4">
@@ -56203,7 +56170,7 @@
       </c>
     </row>
     <row r="1457" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1457" s="17">
+      <c r="A1457" s="4">
         <v>28</v>
       </c>
       <c r="B1457" s="4">
@@ -56241,7 +56208,7 @@
       </c>
     </row>
     <row r="1458" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1458" s="17">
+      <c r="A1458" s="4">
         <v>28</v>
       </c>
       <c r="B1458" s="4">
@@ -56279,7 +56246,7 @@
       </c>
     </row>
     <row r="1459" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1459" s="17">
+      <c r="A1459" s="4">
         <v>28</v>
       </c>
       <c r="B1459" s="4">
@@ -56317,7 +56284,7 @@
       </c>
     </row>
     <row r="1460" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1460" s="18">
+      <c r="A1460" s="4">
         <v>29</v>
       </c>
       <c r="B1460" s="4">
@@ -56355,7 +56322,7 @@
       </c>
     </row>
     <row r="1461" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1461" s="18">
+      <c r="A1461" s="4">
         <v>29</v>
       </c>
       <c r="B1461" s="4">
@@ -56393,7 +56360,7 @@
       </c>
     </row>
     <row r="1462" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1462" s="18">
+      <c r="A1462" s="4">
         <v>29</v>
       </c>
       <c r="B1462" s="4">
@@ -56431,7 +56398,7 @@
       </c>
     </row>
     <row r="1463" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1463" s="18">
+      <c r="A1463" s="4">
         <v>29</v>
       </c>
       <c r="B1463" s="4">
@@ -56469,7 +56436,7 @@
       </c>
     </row>
     <row r="1464" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1464" s="18">
+      <c r="A1464" s="4">
         <v>29</v>
       </c>
       <c r="B1464" s="4">
@@ -56507,7 +56474,7 @@
       </c>
     </row>
     <row r="1465" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1465" s="18">
+      <c r="A1465" s="4">
         <v>29</v>
       </c>
       <c r="B1465" s="4">
@@ -56545,7 +56512,7 @@
       </c>
     </row>
     <row r="1466" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1466" s="18">
+      <c r="A1466" s="4">
         <v>29</v>
       </c>
       <c r="B1466" s="4">
@@ -56583,7 +56550,7 @@
       </c>
     </row>
     <row r="1467" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1467" s="18">
+      <c r="A1467" s="4">
         <v>29</v>
       </c>
       <c r="B1467" s="4">
@@ -56621,7 +56588,7 @@
       </c>
     </row>
     <row r="1468" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1468" s="18">
+      <c r="A1468" s="4">
         <v>29</v>
       </c>
       <c r="B1468" s="4">
@@ -56659,7 +56626,7 @@
       </c>
     </row>
     <row r="1469" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1469" s="18">
+      <c r="A1469" s="4">
         <v>29</v>
       </c>
       <c r="B1469" s="4">
@@ -56697,7 +56664,7 @@
       </c>
     </row>
     <row r="1470" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1470" s="18">
+      <c r="A1470" s="4">
         <v>29</v>
       </c>
       <c r="B1470" s="4">
@@ -56735,7 +56702,7 @@
       </c>
     </row>
     <row r="1471" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1471" s="18">
+      <c r="A1471" s="4">
         <v>29</v>
       </c>
       <c r="B1471" s="4">
@@ -56773,7 +56740,7 @@
       </c>
     </row>
     <row r="1472" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1472" s="18">
+      <c r="A1472" s="4">
         <v>29</v>
       </c>
       <c r="B1472" s="4">
@@ -56811,7 +56778,7 @@
       </c>
     </row>
     <row r="1473" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1473" s="18">
+      <c r="A1473" s="4">
         <v>29</v>
       </c>
       <c r="B1473" s="4">
@@ -56849,7 +56816,7 @@
       </c>
     </row>
     <row r="1474" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1474" s="18">
+      <c r="A1474" s="4">
         <v>29</v>
       </c>
       <c r="B1474" s="4">
@@ -56887,7 +56854,7 @@
       </c>
     </row>
     <row r="1475" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1475" s="18">
+      <c r="A1475" s="4">
         <v>29</v>
       </c>
       <c r="B1475" s="4">
@@ -56925,7 +56892,7 @@
       </c>
     </row>
     <row r="1476" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1476" s="18">
+      <c r="A1476" s="4">
         <v>29</v>
       </c>
       <c r="B1476" s="4">
@@ -56963,7 +56930,7 @@
       </c>
     </row>
     <row r="1477" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1477" s="18">
+      <c r="A1477" s="4">
         <v>29</v>
       </c>
       <c r="B1477" s="4">
@@ -57001,7 +56968,7 @@
       </c>
     </row>
     <row r="1478" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1478" s="18">
+      <c r="A1478" s="4">
         <v>29</v>
       </c>
       <c r="B1478" s="4">
@@ -57039,7 +57006,7 @@
       </c>
     </row>
     <row r="1479" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1479" s="18">
+      <c r="A1479" s="4">
         <v>29</v>
       </c>
       <c r="B1479" s="4">
@@ -57077,7 +57044,7 @@
       </c>
     </row>
     <row r="1480" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1480" s="18">
+      <c r="A1480" s="4">
         <v>29</v>
       </c>
       <c r="B1480" s="4">
@@ -57115,7 +57082,7 @@
       </c>
     </row>
     <row r="1481" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1481" s="18">
+      <c r="A1481" s="4">
         <v>29</v>
       </c>
       <c r="B1481" s="4">
@@ -57153,7 +57120,7 @@
       </c>
     </row>
     <row r="1482" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1482" s="18">
+      <c r="A1482" s="4">
         <v>29</v>
       </c>
       <c r="B1482" s="4">
@@ -57191,7 +57158,7 @@
       </c>
     </row>
     <row r="1483" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1483" s="18">
+      <c r="A1483" s="4">
         <v>29</v>
       </c>
       <c r="B1483" s="4">
@@ -57229,7 +57196,7 @@
       </c>
     </row>
     <row r="1484" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1484" s="18">
+      <c r="A1484" s="4">
         <v>29</v>
       </c>
       <c r="B1484" s="4">
@@ -57267,7 +57234,7 @@
       </c>
     </row>
     <row r="1485" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1485" s="18">
+      <c r="A1485" s="4">
         <v>29</v>
       </c>
       <c r="B1485" s="4">
@@ -57305,7 +57272,7 @@
       </c>
     </row>
     <row r="1486" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1486" s="18">
+      <c r="A1486" s="4">
         <v>29</v>
       </c>
       <c r="B1486" s="4">
@@ -57343,7 +57310,7 @@
       </c>
     </row>
     <row r="1487" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1487" s="18">
+      <c r="A1487" s="4">
         <v>29</v>
       </c>
       <c r="B1487" s="4">
@@ -57381,7 +57348,7 @@
       </c>
     </row>
     <row r="1488" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1488" s="18">
+      <c r="A1488" s="4">
         <v>29</v>
       </c>
       <c r="B1488" s="4">
@@ -57419,7 +57386,7 @@
       </c>
     </row>
     <row r="1489" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1489" s="18">
+      <c r="A1489" s="4">
         <v>29</v>
       </c>
       <c r="B1489" s="4">
@@ -57457,7 +57424,7 @@
       </c>
     </row>
     <row r="1490" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1490" s="18">
+      <c r="A1490" s="4">
         <v>29</v>
       </c>
       <c r="B1490" s="4">
@@ -57495,7 +57462,7 @@
       </c>
     </row>
     <row r="1491" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1491" s="18">
+      <c r="A1491" s="4">
         <v>29</v>
       </c>
       <c r="B1491" s="4">
@@ -57533,7 +57500,7 @@
       </c>
     </row>
     <row r="1492" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1492" s="18">
+      <c r="A1492" s="4">
         <v>29</v>
       </c>
       <c r="B1492" s="4">
@@ -57571,7 +57538,7 @@
       </c>
     </row>
     <row r="1493" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1493" s="18">
+      <c r="A1493" s="4">
         <v>29</v>
       </c>
       <c r="B1493" s="4">
@@ -57609,7 +57576,7 @@
       </c>
     </row>
     <row r="1494" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1494" s="18">
+      <c r="A1494" s="4">
         <v>29</v>
       </c>
       <c r="B1494" s="4">
@@ -57647,7 +57614,7 @@
       </c>
     </row>
     <row r="1495" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1495" s="18">
+      <c r="A1495" s="4">
         <v>29</v>
       </c>
       <c r="B1495" s="4">
@@ -57685,7 +57652,7 @@
       </c>
     </row>
     <row r="1496" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1496" s="18">
+      <c r="A1496" s="4">
         <v>29</v>
       </c>
       <c r="B1496" s="4">
@@ -57723,7 +57690,7 @@
       </c>
     </row>
     <row r="1497" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1497" s="18">
+      <c r="A1497" s="4">
         <v>29</v>
       </c>
       <c r="B1497" s="4">
@@ -57761,7 +57728,7 @@
       </c>
     </row>
     <row r="1498" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1498" s="18">
+      <c r="A1498" s="4">
         <v>29</v>
       </c>
       <c r="B1498" s="4">
@@ -57799,7 +57766,7 @@
       </c>
     </row>
     <row r="1499" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1499" s="18">
+      <c r="A1499" s="4">
         <v>29</v>
       </c>
       <c r="B1499" s="4">
@@ -57837,7 +57804,7 @@
       </c>
     </row>
     <row r="1500" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1500" s="18">
+      <c r="A1500" s="4">
         <v>29</v>
       </c>
       <c r="B1500" s="4">
@@ -57875,7 +57842,7 @@
       </c>
     </row>
     <row r="1501" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1501" s="18">
+      <c r="A1501" s="4">
         <v>29</v>
       </c>
       <c r="B1501" s="4">
@@ -57913,7 +57880,7 @@
       </c>
     </row>
     <row r="1502" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1502" s="18">
+      <c r="A1502" s="4">
         <v>29</v>
       </c>
       <c r="B1502" s="4">
@@ -57951,7 +57918,7 @@
       </c>
     </row>
     <row r="1503" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1503" s="18">
+      <c r="A1503" s="4">
         <v>29</v>
       </c>
       <c r="B1503" s="4">
@@ -57989,7 +57956,7 @@
       </c>
     </row>
     <row r="1504" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1504" s="18">
+      <c r="A1504" s="4">
         <v>29</v>
       </c>
       <c r="B1504" s="4">
@@ -58027,7 +57994,7 @@
       </c>
     </row>
     <row r="1505" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1505" s="18">
+      <c r="A1505" s="4">
         <v>29</v>
       </c>
       <c r="B1505" s="4">
@@ -58065,7 +58032,7 @@
       </c>
     </row>
     <row r="1506" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1506" s="18">
+      <c r="A1506" s="4">
         <v>29</v>
       </c>
       <c r="B1506" s="4">
@@ -58103,7 +58070,7 @@
       </c>
     </row>
     <row r="1507" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1507" s="18">
+      <c r="A1507" s="4">
         <v>29</v>
       </c>
       <c r="B1507" s="4">
@@ -58141,7 +58108,7 @@
       </c>
     </row>
     <row r="1508" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1508" s="18">
+      <c r="A1508" s="4">
         <v>29</v>
       </c>
       <c r="B1508" s="4">
@@ -58179,7 +58146,7 @@
       </c>
     </row>
     <row r="1509" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1509" s="18">
+      <c r="A1509" s="4">
         <v>29</v>
       </c>
       <c r="B1509" s="4">
@@ -58217,7 +58184,7 @@
       </c>
     </row>
     <row r="1510" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1510" s="18">
+      <c r="A1510" s="4">
         <v>29</v>
       </c>
       <c r="B1510" s="4">
@@ -58255,7 +58222,7 @@
       </c>
     </row>
     <row r="1511" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1511" s="18">
+      <c r="A1511" s="4">
         <v>29</v>
       </c>
       <c r="B1511" s="4">
@@ -58293,7 +58260,7 @@
       </c>
     </row>
     <row r="1512" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1512" s="18">
+      <c r="A1512" s="4">
         <v>29</v>
       </c>
       <c r="B1512" s="4">
@@ -58331,7 +58298,7 @@
       </c>
     </row>
     <row r="1513" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1513" s="18">
+      <c r="A1513" s="4">
         <v>29</v>
       </c>
       <c r="B1513" s="4">
@@ -58370,36 +58337,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G53">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106:G313">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470:G521">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G574:G625">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G990:G1041">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1354:G1459">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1460:G1513">
+  <conditionalFormatting sqref="G1354:G1513">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/dfstoreTotal.xlsx
+++ b/dfstoreTotal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raymundo.AIMGROUP\Documents\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F5AF17-36A1-4F62-B619-43CC1DED2599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5A09C8-63CB-44D6-8B09-6166259EB614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4C819F2-4AF9-4A6C-ADE0-8FDD16DFA0B1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4C819F2-4AF9-4A6C-ADE0-8FDD16DFA0B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4892" uniqueCount="88">
   <si>
     <t>Sales Report</t>
   </si>
@@ -820,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB4736B-D2FA-4169-A4E7-16CED2D3917B}">
-  <dimension ref="A1:L1513"/>
+  <dimension ref="A1:L1621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1478" workbookViewId="0">
-      <selection activeCell="A1512" sqref="A1512"/>
+    <sheetView tabSelected="1" topLeftCell="A1591" workbookViewId="0">
+      <selection activeCell="C1624" sqref="C1624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58278,7 +58278,7 @@
       <c r="F1512" s="15">
         <v>0</v>
       </c>
-      <c r="G1512" s="12" t="s">
+      <c r="G1512" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H1512" s="8">
@@ -58316,7 +58316,7 @@
       <c r="F1513" s="15">
         <v>0</v>
       </c>
-      <c r="G1513" s="12" t="s">
+      <c r="G1513" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H1513" s="8">
@@ -58335,33 +58335,4137 @@
         <v>87</v>
       </c>
     </row>
+    <row r="1514" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1514" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1514" s="4">
+        <v>1020</v>
+      </c>
+      <c r="C1514" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1514" s="16">
+        <v>13668.179999999966</v>
+      </c>
+      <c r="E1514" s="16">
+        <v>13668.179999999966</v>
+      </c>
+      <c r="F1514" s="15">
+        <v>14505.889999999958</v>
+      </c>
+      <c r="G1514" s="7">
+        <v>-5.774964514414449E-2</v>
+      </c>
+      <c r="H1514" s="8">
+        <v>1.0991584343319911E-2</v>
+      </c>
+      <c r="I1514" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1514" s="10">
+        <v>75</v>
+      </c>
+      <c r="K1514" s="11">
+        <v>182.24239999999955</v>
+      </c>
+      <c r="L1514" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1515" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1515" s="4">
+        <v>1019</v>
+      </c>
+      <c r="C1515" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1515" s="16">
+        <v>8194.9699999999721</v>
+      </c>
+      <c r="E1515" s="16">
+        <v>8194.9699999999721</v>
+      </c>
+      <c r="F1515" s="15">
+        <v>9456.7599999999766</v>
+      </c>
+      <c r="G1515" s="7">
+        <v>-0.13342730491204258</v>
+      </c>
+      <c r="H1515" s="8">
+        <v>6.5901754254023785E-3</v>
+      </c>
+      <c r="I1515" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1515" s="10">
+        <v>49</v>
+      </c>
+      <c r="K1515" s="11">
+        <v>167.24428571428516</v>
+      </c>
+      <c r="L1515" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1516" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1516" s="4">
+        <v>1021</v>
+      </c>
+      <c r="C1516" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1516" s="16">
+        <v>12182.489999999971</v>
+      </c>
+      <c r="E1516" s="16">
+        <v>12182.489999999971</v>
+      </c>
+      <c r="F1516" s="15">
+        <v>10752.429999999989</v>
+      </c>
+      <c r="G1516" s="7">
+        <v>0.13299877330054533</v>
+      </c>
+      <c r="H1516" s="8">
+        <v>9.7968322297958751E-3</v>
+      </c>
+      <c r="I1516" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1516" s="10">
+        <v>68</v>
+      </c>
+      <c r="K1516" s="11">
+        <v>179.15426470588193</v>
+      </c>
+      <c r="L1516" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1517" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1517" s="4">
+        <v>1030</v>
+      </c>
+      <c r="C1517" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1517" s="16">
+        <v>24035.23000000008</v>
+      </c>
+      <c r="E1517" s="16">
+        <v>24035.23000000008</v>
+      </c>
+      <c r="F1517" s="15">
+        <v>34551.845000000227</v>
+      </c>
+      <c r="G1517" s="7">
+        <v>-0.30437202412780207</v>
+      </c>
+      <c r="H1517" s="8">
+        <v>1.9328488339785878E-2</v>
+      </c>
+      <c r="I1517" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1517" s="10">
+        <v>278</v>
+      </c>
+      <c r="K1517" s="11">
+        <v>86.457661870503884</v>
+      </c>
+      <c r="L1517" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1518" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1518" s="4">
+        <v>1043</v>
+      </c>
+      <c r="C1518" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1518" s="16">
+        <v>24898.410000000109</v>
+      </c>
+      <c r="E1518" s="16">
+        <v>24898.410000000109</v>
+      </c>
+      <c r="F1518" s="15">
+        <v>29328.983000000604</v>
+      </c>
+      <c r="G1518" s="7">
+        <v>-0.15106466528349805</v>
+      </c>
+      <c r="H1518" s="8">
+        <v>2.0022634581163094E-2</v>
+      </c>
+      <c r="I1518" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1518" s="10">
+        <v>288</v>
+      </c>
+      <c r="K1518" s="11">
+        <v>86.452812500000377</v>
+      </c>
+      <c r="L1518" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1519" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1519" s="4">
+        <v>1046</v>
+      </c>
+      <c r="C1519" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1519" s="16">
+        <v>5577.78999999999</v>
+      </c>
+      <c r="E1519" s="16">
+        <v>5577.78999999999</v>
+      </c>
+      <c r="F1519" s="15">
+        <v>9420.0010000000111</v>
+      </c>
+      <c r="G1519" s="7">
+        <v>-0.40787798217855997</v>
+      </c>
+      <c r="H1519" s="8">
+        <v>4.4855093534271872E-3</v>
+      </c>
+      <c r="I1519" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1519" s="10">
+        <v>159</v>
+      </c>
+      <c r="K1519" s="11">
+        <v>35.080440251572263</v>
+      </c>
+      <c r="L1519" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1520" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1520" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C1520" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1520" s="16">
+        <v>10738.679999999966</v>
+      </c>
+      <c r="E1520" s="16">
+        <v>10738.679999999966</v>
+      </c>
+      <c r="F1520" s="15">
+        <v>11700.071999999967</v>
+      </c>
+      <c r="G1520" s="7">
+        <v>-8.2169750750252124E-2</v>
+      </c>
+      <c r="H1520" s="8">
+        <v>8.6357588907903307E-3</v>
+      </c>
+      <c r="I1520" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1520" s="10">
+        <v>184</v>
+      </c>
+      <c r="K1520" s="11">
+        <v>58.362391304347639</v>
+      </c>
+      <c r="L1520" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1521" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1521" s="4">
+        <v>1047</v>
+      </c>
+      <c r="C1521" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1521" s="16">
+        <v>25116.880000000154</v>
+      </c>
+      <c r="E1521" s="16">
+        <v>25116.880000000154</v>
+      </c>
+      <c r="F1521" s="15">
+        <v>33481.897500000479</v>
+      </c>
+      <c r="G1521" s="7">
+        <v>-0.24983702013902309</v>
+      </c>
+      <c r="H1521" s="8">
+        <v>2.0198322304875074E-2</v>
+      </c>
+      <c r="I1521" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1521" s="10">
+        <v>249</v>
+      </c>
+      <c r="K1521" s="11">
+        <v>100.87100401606487</v>
+      </c>
+      <c r="L1521" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1522" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1522" s="4">
+        <v>1011</v>
+      </c>
+      <c r="C1522" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1522" s="16">
+        <v>26383.630000000125</v>
+      </c>
+      <c r="E1522" s="16">
+        <v>26383.630000000125</v>
+      </c>
+      <c r="F1522" s="15">
+        <v>28632.236000000576</v>
+      </c>
+      <c r="G1522" s="7">
+        <v>-7.8534069082149438E-2</v>
+      </c>
+      <c r="H1522" s="8">
+        <v>2.1217008733273018E-2</v>
+      </c>
+      <c r="I1522" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1522" s="10">
+        <v>293</v>
+      </c>
+      <c r="K1522" s="11">
+        <v>90.046518771331478</v>
+      </c>
+      <c r="L1522" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1523" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1523" s="4">
+        <v>1059</v>
+      </c>
+      <c r="C1523" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1523" s="16">
+        <v>21528.300000000047</v>
+      </c>
+      <c r="E1523" s="16">
+        <v>21528.300000000047</v>
+      </c>
+      <c r="F1523" s="15">
+        <v>31861.728000000669</v>
+      </c>
+      <c r="G1523" s="7">
+        <v>-0.32432101611062669</v>
+      </c>
+      <c r="H1523" s="8">
+        <v>1.7312482365486489E-2</v>
+      </c>
+      <c r="I1523" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1523" s="10">
+        <v>273</v>
+      </c>
+      <c r="K1523" s="11">
+        <v>78.858241758241931</v>
+      </c>
+      <c r="L1523" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1524" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1524" s="4">
+        <v>1063</v>
+      </c>
+      <c r="C1524" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1524" s="16">
+        <v>16389.099999999926</v>
+      </c>
+      <c r="E1524" s="16">
+        <v>16389.099999999926</v>
+      </c>
+      <c r="F1524" s="15">
+        <v>14783.687999999949</v>
+      </c>
+      <c r="G1524" s="7">
+        <v>0.10859347139901643</v>
+      </c>
+      <c r="H1524" s="8">
+        <v>1.317967534529864E-2</v>
+      </c>
+      <c r="I1524" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1524" s="10">
+        <v>236</v>
+      </c>
+      <c r="K1524" s="11">
+        <v>69.445338983050533</v>
+      </c>
+      <c r="L1524" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1525" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1525" s="4">
+        <v>1065</v>
+      </c>
+      <c r="C1525" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1525" s="16">
+        <v>16389.419999999933</v>
+      </c>
+      <c r="E1525" s="16">
+        <v>16389.419999999933</v>
+      </c>
+      <c r="F1525" s="15">
+        <v>15641.657999999941</v>
+      </c>
+      <c r="G1525" s="7">
+        <v>4.7805801661179093E-2</v>
+      </c>
+      <c r="H1525" s="8">
+        <v>1.3179932680729542E-2</v>
+      </c>
+      <c r="I1525" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1525" s="10">
+        <v>232</v>
+      </c>
+      <c r="K1525" s="11">
+        <v>70.64405172413764</v>
+      </c>
+      <c r="L1525" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1526" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1526" s="4">
+        <v>1013</v>
+      </c>
+      <c r="C1526" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1526" s="16">
+        <v>26281.330000000162</v>
+      </c>
+      <c r="E1526" s="16">
+        <v>26281.330000000162</v>
+      </c>
+      <c r="F1526" s="15">
+        <v>33647.319000000272</v>
+      </c>
+      <c r="G1526" s="7">
+        <v>-0.21891756071263957</v>
+      </c>
+      <c r="H1526" s="8">
+        <v>2.1134741812708521E-2</v>
+      </c>
+      <c r="I1526" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1526" s="10">
+        <v>401</v>
+      </c>
+      <c r="K1526" s="11">
+        <v>65.539476309227339</v>
+      </c>
+      <c r="L1526" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1527" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1527" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C1527" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1527" s="16">
+        <v>15670.909999999942</v>
+      </c>
+      <c r="E1527" s="16">
+        <v>15670.909999999942</v>
+      </c>
+      <c r="F1527" s="15">
+        <v>13615.54399999992</v>
+      </c>
+      <c r="G1527" s="7">
+        <v>0.15095731760699649</v>
+      </c>
+      <c r="H1527" s="8">
+        <v>1.260212617931394E-2</v>
+      </c>
+      <c r="I1527" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1527" s="10">
+        <v>163</v>
+      </c>
+      <c r="K1527" s="11">
+        <v>96.140552147238907</v>
+      </c>
+      <c r="L1527" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1528" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1528" s="4">
+        <v>1066</v>
+      </c>
+      <c r="C1528" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1528" s="16">
+        <v>10530.589999999931</v>
+      </c>
+      <c r="E1528" s="16">
+        <v>10530.589999999931</v>
+      </c>
+      <c r="F1528" s="15">
+        <v>33933.565000000221</v>
+      </c>
+      <c r="G1528" s="7">
+        <v>-0.68967038977484796</v>
+      </c>
+      <c r="H1528" s="8">
+        <v>8.4684184851180448E-3</v>
+      </c>
+      <c r="I1528" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1528" s="10">
+        <v>373</v>
+      </c>
+      <c r="K1528" s="11">
+        <v>28.232144772117778</v>
+      </c>
+      <c r="L1528" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1529" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1529" s="4">
+        <v>1061</v>
+      </c>
+      <c r="C1529" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1529" s="16">
+        <v>7214.6799999999748</v>
+      </c>
+      <c r="E1529" s="16">
+        <v>7214.6799999999748</v>
+      </c>
+      <c r="F1529" s="15">
+        <v>10736.897999999957</v>
+      </c>
+      <c r="G1529" s="7">
+        <v>-0.32804800790693889</v>
+      </c>
+      <c r="H1529" s="8">
+        <v>5.8018524580495147E-3</v>
+      </c>
+      <c r="I1529" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1529" s="10">
+        <v>97</v>
+      </c>
+      <c r="K1529" s="11">
+        <v>74.378144329896642</v>
+      </c>
+      <c r="L1529" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1530" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1530" s="4">
+        <v>1023</v>
+      </c>
+      <c r="C1530" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1530" s="16">
+        <v>9927.3999999999505</v>
+      </c>
+      <c r="E1530" s="16">
+        <v>9927.3999999999505</v>
+      </c>
+      <c r="F1530" s="15">
+        <v>10528.334999999975</v>
+      </c>
+      <c r="G1530" s="7">
+        <v>-5.7077876036431774E-2</v>
+      </c>
+      <c r="H1530" s="8">
+        <v>7.9833492396115518E-3</v>
+      </c>
+      <c r="I1530" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1530" s="10">
+        <v>122</v>
+      </c>
+      <c r="K1530" s="11">
+        <v>81.372131147540571</v>
+      </c>
+      <c r="L1530" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1531" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1531" s="4">
+        <v>1068</v>
+      </c>
+      <c r="C1531" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1531" s="16">
+        <v>14096.119999999946</v>
+      </c>
+      <c r="E1531" s="16">
+        <v>14096.119999999946</v>
+      </c>
+      <c r="F1531" s="15">
+        <v>18403.749999999985</v>
+      </c>
+      <c r="G1531" s="7">
+        <v>-0.23406262310670611</v>
+      </c>
+      <c r="H1531" s="8">
+        <v>1.1335722231749834E-2</v>
+      </c>
+      <c r="I1531" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1531" s="10">
+        <v>255</v>
+      </c>
+      <c r="K1531" s="11">
+        <v>55.278901960784104</v>
+      </c>
+      <c r="L1531" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1532" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1532" s="4">
+        <v>1017</v>
+      </c>
+      <c r="C1532" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1532" s="16">
+        <v>22216.569999999989</v>
+      </c>
+      <c r="E1532" s="16">
+        <v>22216.569999999989</v>
+      </c>
+      <c r="F1532" s="15">
+        <v>22471.117000000351</v>
+      </c>
+      <c r="G1532" s="7">
+        <v>-1.1327741295653393E-2</v>
+      </c>
+      <c r="H1532" s="8">
+        <v>1.7865970668682393E-2</v>
+      </c>
+      <c r="I1532" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1532" s="10">
+        <v>157</v>
+      </c>
+      <c r="K1532" s="11">
+        <v>141.50681528662415</v>
+      </c>
+      <c r="L1532" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1533" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1533" s="4">
+        <v>1040</v>
+      </c>
+      <c r="C1533" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1533" s="16">
+        <v>20175.2</v>
+      </c>
+      <c r="E1533" s="16">
+        <v>20175.2</v>
+      </c>
+      <c r="F1533" s="15">
+        <v>23551.083000000468</v>
+      </c>
+      <c r="G1533" s="7">
+        <v>-0.14334300465080096</v>
+      </c>
+      <c r="H1533" s="8">
+        <v>1.6224355579407677E-2</v>
+      </c>
+      <c r="I1533" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1533" s="10">
+        <v>322</v>
+      </c>
+      <c r="K1533" s="11">
+        <v>62.655900621118015</v>
+      </c>
+      <c r="L1533" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1534" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1534" s="4">
+        <v>1027</v>
+      </c>
+      <c r="C1534" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1534" s="16">
+        <v>51146.779999999962</v>
+      </c>
+      <c r="E1534" s="16">
+        <v>51146.779999999962</v>
+      </c>
+      <c r="F1534" s="15">
+        <v>62974.276500000036</v>
+      </c>
+      <c r="G1534" s="7">
+        <v>-0.18781472622396966</v>
+      </c>
+      <c r="H1534" s="8">
+        <v>4.113087084448909E-2</v>
+      </c>
+      <c r="I1534" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1534" s="10">
+        <v>322</v>
+      </c>
+      <c r="K1534" s="11">
+        <v>158.84093167701852</v>
+      </c>
+      <c r="L1534" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1535" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1535" s="4">
+        <v>1044</v>
+      </c>
+      <c r="C1535" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1535" s="16">
+        <v>10381.629999999977</v>
+      </c>
+      <c r="E1535" s="16">
+        <v>10381.629999999977</v>
+      </c>
+      <c r="F1535" s="15">
+        <v>17487.23100000004</v>
+      </c>
+      <c r="G1535" s="7">
+        <v>-0.40633082504600337</v>
+      </c>
+      <c r="H1535" s="8">
+        <v>8.3486288420360523E-3</v>
+      </c>
+      <c r="I1535" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1535" s="10">
+        <v>216</v>
+      </c>
+      <c r="K1535" s="11">
+        <v>48.063101851851748</v>
+      </c>
+      <c r="L1535" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1536" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1536" s="4">
+        <v>1048</v>
+      </c>
+      <c r="C1536" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1536" s="16">
+        <v>24310.210000000097</v>
+      </c>
+      <c r="E1536" s="16">
+        <v>24310.210000000097</v>
+      </c>
+      <c r="F1536" s="15">
+        <v>32684.502694360239</v>
+      </c>
+      <c r="G1536" s="7">
+        <v>-0.25621600465119321</v>
+      </c>
+      <c r="H1536" s="8">
+        <v>1.9549619892247603E-2</v>
+      </c>
+      <c r="I1536" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1536" s="10">
+        <v>275</v>
+      </c>
+      <c r="K1536" s="11">
+        <v>88.40076363636399</v>
+      </c>
+      <c r="L1536" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1537" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1537" s="4">
+        <v>1031</v>
+      </c>
+      <c r="C1537" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1537" s="16">
+        <v>66037.969999999899</v>
+      </c>
+      <c r="E1537" s="16">
+        <v>66037.969999999899</v>
+      </c>
+      <c r="F1537" s="15">
+        <v>82011.726000001683</v>
+      </c>
+      <c r="G1537" s="7">
+        <v>-0.19477404974992796</v>
+      </c>
+      <c r="H1537" s="8">
+        <v>5.3105967079496365E-2</v>
+      </c>
+      <c r="I1537" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1537" s="10">
+        <v>536</v>
+      </c>
+      <c r="K1537" s="11">
+        <v>123.20516791044757</v>
+      </c>
+      <c r="L1537" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1538" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1538" s="4">
+        <v>1042</v>
+      </c>
+      <c r="C1538" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1538" s="16">
+        <v>13840.899999999907</v>
+      </c>
+      <c r="E1538" s="16">
+        <v>13840.899999999907</v>
+      </c>
+      <c r="F1538" s="15">
+        <v>18591.068000000017</v>
+      </c>
+      <c r="G1538" s="7">
+        <v>-0.25550807516814555</v>
+      </c>
+      <c r="H1538" s="8">
+        <v>1.1130481142145912E-2</v>
+      </c>
+      <c r="I1538" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1538" s="10">
+        <v>130</v>
+      </c>
+      <c r="K1538" s="11">
+        <v>106.46846153846082</v>
+      </c>
+      <c r="L1538" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1539" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1539" s="4">
+        <v>1025</v>
+      </c>
+      <c r="C1539" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1539" s="16">
+        <v>23075.140000000076</v>
+      </c>
+      <c r="E1539" s="16">
+        <v>23075.140000000076</v>
+      </c>
+      <c r="F1539" s="15">
+        <v>31117.691000000657</v>
+      </c>
+      <c r="G1539" s="7">
+        <v>-0.25845590535623009</v>
+      </c>
+      <c r="H1539" s="8">
+        <v>1.855640967150831E-2</v>
+      </c>
+      <c r="I1539" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1539" s="10">
+        <v>359</v>
+      </c>
+      <c r="K1539" s="11">
+        <v>64.27615598885815</v>
+      </c>
+      <c r="L1539" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1540" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1540" s="4">
+        <v>1067</v>
+      </c>
+      <c r="C1540" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1540" s="16">
+        <v>26472.920000000115</v>
+      </c>
+      <c r="E1540" s="16">
+        <v>26472.920000000115</v>
+      </c>
+      <c r="F1540" s="15">
+        <v>25265.366000000573</v>
+      </c>
+      <c r="G1540" s="7">
+        <v>4.7794835032253902E-2</v>
+      </c>
+      <c r="H1540" s="8">
+        <v>2.1288813360225173E-2</v>
+      </c>
+      <c r="I1540" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1540" s="10">
+        <v>418</v>
+      </c>
+      <c r="K1540" s="11">
+        <v>63.332344497607927</v>
+      </c>
+      <c r="L1540" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1541" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1541" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C1541" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1541" s="16">
+        <v>60028.939999999966</v>
+      </c>
+      <c r="E1541" s="16">
+        <v>60028.939999999966</v>
+      </c>
+      <c r="F1541" s="15">
+        <v>80040.660000001153</v>
+      </c>
+      <c r="G1541" s="7">
+        <v>-0.25001942762592033</v>
+      </c>
+      <c r="H1541" s="8">
+        <v>4.8273666066008171E-2</v>
+      </c>
+      <c r="I1541" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1541" s="10">
+        <v>337</v>
+      </c>
+      <c r="K1541" s="11">
+        <v>178.127418397626</v>
+      </c>
+      <c r="L1541" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1542" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1542" s="4">
+        <v>1010</v>
+      </c>
+      <c r="C1542" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1542" s="16">
+        <v>8815.7499999999673</v>
+      </c>
+      <c r="E1542" s="16">
+        <v>8815.7499999999673</v>
+      </c>
+      <c r="F1542" s="15">
+        <v>9295.9269999999633</v>
+      </c>
+      <c r="G1542" s="7">
+        <v>-5.1654557958555225E-2</v>
+      </c>
+      <c r="H1542" s="8">
+        <v>7.089390077875941E-3</v>
+      </c>
+      <c r="I1542" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1542" s="10">
+        <v>125</v>
+      </c>
+      <c r="K1542" s="11">
+        <v>70.52599999999974</v>
+      </c>
+      <c r="L1542" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1543" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1543" s="4">
+        <v>1032</v>
+      </c>
+      <c r="C1543" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1543" s="16">
+        <v>17478.099999999962</v>
+      </c>
+      <c r="E1543" s="16">
+        <v>17478.099999999962</v>
+      </c>
+      <c r="F1543" s="15">
+        <v>22814.618000000373</v>
+      </c>
+      <c r="G1543" s="7">
+        <v>-0.23390783926341974</v>
+      </c>
+      <c r="H1543" s="8">
+        <v>1.4055419983566195E-2</v>
+      </c>
+      <c r="I1543" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1543" s="10">
+        <v>211</v>
+      </c>
+      <c r="K1543" s="11">
+        <v>82.834597156397919</v>
+      </c>
+      <c r="L1543" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1544" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1544" s="4">
+        <v>1054</v>
+      </c>
+      <c r="C1544" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1544" s="16">
+        <v>32984.540000000226</v>
+      </c>
+      <c r="E1544" s="16">
+        <v>32984.540000000226</v>
+      </c>
+      <c r="F1544" s="15">
+        <v>39115.905000000268</v>
+      </c>
+      <c r="G1544" s="7">
+        <v>-0.15674864227224194</v>
+      </c>
+      <c r="H1544" s="8">
+        <v>2.652528379313213E-2</v>
+      </c>
+      <c r="I1544" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1544" s="10">
+        <v>312</v>
+      </c>
+      <c r="K1544" s="11">
+        <v>105.71967948718022</v>
+      </c>
+      <c r="L1544" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1545" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1545" s="4">
+        <v>1033</v>
+      </c>
+      <c r="C1545" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1545" s="16">
+        <v>54727.000000000022</v>
+      </c>
+      <c r="E1545" s="16">
+        <v>54727.000000000022</v>
+      </c>
+      <c r="F1545" s="15">
+        <v>73751.529000000475</v>
+      </c>
+      <c r="G1545" s="7">
+        <v>-0.25795436729183374</v>
+      </c>
+      <c r="H1545" s="8">
+        <v>4.4009987895745485E-2</v>
+      </c>
+      <c r="I1545" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1545" s="10">
+        <v>436</v>
+      </c>
+      <c r="K1545" s="11">
+        <v>125.52064220183492</v>
+      </c>
+      <c r="L1545" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1546" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1546" s="4">
+        <v>1062</v>
+      </c>
+      <c r="C1546" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1546" s="16">
+        <v>5863.4099999999826</v>
+      </c>
+      <c r="E1546" s="16">
+        <v>5863.4099999999826</v>
+      </c>
+      <c r="F1546" s="15">
+        <v>5353.1259999999738</v>
+      </c>
+      <c r="G1546" s="7">
+        <v>9.5324488906110449E-2</v>
+      </c>
+      <c r="H1546" s="8">
+        <v>4.7151973089661807E-3</v>
+      </c>
+      <c r="I1546" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1546" s="10">
+        <v>67</v>
+      </c>
+      <c r="K1546" s="11">
+        <v>87.513582089551974</v>
+      </c>
+      <c r="L1546" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1547" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1547" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C1547" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1547" s="16">
+        <v>53790.67</v>
+      </c>
+      <c r="E1547" s="16">
+        <v>53790.67</v>
+      </c>
+      <c r="F1547" s="15">
+        <v>58565.966000000248</v>
+      </c>
+      <c r="G1547" s="7">
+        <v>-8.1537048325988959E-2</v>
+      </c>
+      <c r="H1547" s="8">
+        <v>4.3257016383211916E-2</v>
+      </c>
+      <c r="I1547" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1547" s="10">
+        <v>245</v>
+      </c>
+      <c r="K1547" s="11">
+        <v>219.55375510204081</v>
+      </c>
+      <c r="L1547" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1548" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1548" s="4">
+        <v>1024</v>
+      </c>
+      <c r="C1548" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1548" s="16">
+        <v>28777.230000000171</v>
+      </c>
+      <c r="E1548" s="16">
+        <v>28777.230000000171</v>
+      </c>
+      <c r="F1548" s="15">
+        <v>38036.547999999828</v>
+      </c>
+      <c r="G1548" s="7">
+        <v>-0.24343213269510422</v>
+      </c>
+      <c r="H1548" s="8">
+        <v>2.3141877756374198E-2</v>
+      </c>
+      <c r="I1548" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1548" s="10">
+        <v>374</v>
+      </c>
+      <c r="K1548" s="11">
+        <v>76.944465240642174</v>
+      </c>
+      <c r="L1548" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1549" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1549" s="4">
+        <v>1058</v>
+      </c>
+      <c r="C1549" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1549" s="16">
+        <v>20032.899999999991</v>
+      </c>
+      <c r="E1549" s="16">
+        <v>20032.899999999991</v>
+      </c>
+      <c r="F1549" s="15">
+        <v>27808.980000000134</v>
+      </c>
+      <c r="G1549" s="7">
+        <v>-0.27962478307367278</v>
+      </c>
+      <c r="H1549" s="8">
+        <v>1.6109921729981158E-2</v>
+      </c>
+      <c r="I1549" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1549" s="10">
+        <v>302</v>
+      </c>
+      <c r="K1549" s="11">
+        <v>66.334105960264864</v>
+      </c>
+      <c r="L1549" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1550" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1550" s="4">
+        <v>1053</v>
+      </c>
+      <c r="C1550" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1550" s="16">
+        <v>20474.389999999996</v>
+      </c>
+      <c r="E1550" s="16">
+        <v>20474.389999999996</v>
+      </c>
+      <c r="F1550" s="15">
+        <v>29963.395000000102</v>
+      </c>
+      <c r="G1550" s="7">
+        <v>-0.31668657707179293</v>
+      </c>
+      <c r="H1550" s="8">
+        <v>1.6464956165563101E-2</v>
+      </c>
+      <c r="I1550" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1550" s="10">
+        <v>219</v>
+      </c>
+      <c r="K1550" s="11">
+        <v>93.490365296803631</v>
+      </c>
+      <c r="L1550" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1551" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1551" s="4">
+        <v>1028</v>
+      </c>
+      <c r="C1551" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1551" s="16">
+        <v>43313.880000000099</v>
+      </c>
+      <c r="E1551" s="16">
+        <v>43313.880000000099</v>
+      </c>
+      <c r="F1551" s="15">
+        <v>61779.026000000355</v>
+      </c>
+      <c r="G1551" s="7">
+        <v>-0.29889020911401465</v>
+      </c>
+      <c r="H1551" s="8">
+        <v>3.4831862417413269E-2</v>
+      </c>
+      <c r="I1551" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1551" s="10">
+        <v>414</v>
+      </c>
+      <c r="K1551" s="11">
+        <v>104.62289855072488</v>
+      </c>
+      <c r="L1551" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1552" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1552" s="4">
+        <v>1026</v>
+      </c>
+      <c r="C1552" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1552" s="16">
+        <v>8532.7399999999907</v>
+      </c>
+      <c r="E1552" s="16">
+        <v>8532.7399999999907</v>
+      </c>
+      <c r="F1552" s="15">
+        <v>9933.1859999999997</v>
+      </c>
+      <c r="G1552" s="7">
+        <v>-0.14098658778764528</v>
+      </c>
+      <c r="H1552" s="8">
+        <v>6.8618010144452053E-3</v>
+      </c>
+      <c r="I1552" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1552" s="10">
+        <v>255</v>
+      </c>
+      <c r="K1552" s="11">
+        <v>33.461725490196045</v>
+      </c>
+      <c r="L1552" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1553" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1553" s="4">
+        <v>1052</v>
+      </c>
+      <c r="C1553" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1553" s="16">
+        <v>5073.5199999999722</v>
+      </c>
+      <c r="E1553" s="16">
+        <v>5073.5199999999722</v>
+      </c>
+      <c r="F1553" s="15">
+        <v>5424.0669999999645</v>
+      </c>
+      <c r="G1553" s="7">
+        <v>-6.4628073362662075E-2</v>
+      </c>
+      <c r="H1553" s="8">
+        <v>4.0799889229963509E-3</v>
+      </c>
+      <c r="I1553" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1553" s="10">
+        <v>125</v>
+      </c>
+      <c r="K1553" s="11">
+        <v>40.588159999999775</v>
+      </c>
+      <c r="L1553" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1554" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1554" s="4">
+        <v>1060</v>
+      </c>
+      <c r="C1554" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1554" s="16">
+        <v>16271.879999999916</v>
+      </c>
+      <c r="E1554" s="16">
+        <v>16271.879999999916</v>
+      </c>
+      <c r="F1554" s="15">
+        <v>19124.04300000006</v>
+      </c>
+      <c r="G1554" s="7">
+        <v>-0.14914016873943103</v>
+      </c>
+      <c r="H1554" s="8">
+        <v>1.3085410160268587E-2</v>
+      </c>
+      <c r="I1554" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1554" s="10">
+        <v>344</v>
+      </c>
+      <c r="K1554" s="11">
+        <v>47.301976744185801</v>
+      </c>
+      <c r="L1554" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1555" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1555" s="4">
+        <v>1016</v>
+      </c>
+      <c r="C1555" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1555" s="16">
+        <v>71736.450000000099</v>
+      </c>
+      <c r="E1555" s="16">
+        <v>71736.450000000099</v>
+      </c>
+      <c r="F1555" s="15">
+        <v>77859.846000002304</v>
+      </c>
+      <c r="G1555" s="7">
+        <v>-7.8646392390784081E-2</v>
+      </c>
+      <c r="H1555" s="8">
+        <v>5.7688532099032547E-2</v>
+      </c>
+      <c r="I1555" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1555" s="10">
+        <v>628</v>
+      </c>
+      <c r="K1555" s="11">
+        <v>114.23001592356704</v>
+      </c>
+      <c r="L1555" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1556" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1556" s="4">
+        <v>1055</v>
+      </c>
+      <c r="C1556" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1556" s="16">
+        <v>17233.989999999947</v>
+      </c>
+      <c r="E1556" s="16">
+        <v>17233.989999999947</v>
+      </c>
+      <c r="F1556" s="15">
+        <v>13478.093999999952</v>
+      </c>
+      <c r="G1556" s="7">
+        <v>0.27866670168645569</v>
+      </c>
+      <c r="H1556" s="8">
+        <v>1.3859113258453707E-2</v>
+      </c>
+      <c r="I1556" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1556" s="10">
+        <v>290</v>
+      </c>
+      <c r="K1556" s="11">
+        <v>59.42755172413775</v>
+      </c>
+      <c r="L1556" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1557" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1557" s="4">
+        <v>1056</v>
+      </c>
+      <c r="C1557" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1557" s="16">
+        <v>5302.6999999999816</v>
+      </c>
+      <c r="E1557" s="16">
+        <v>5302.6999999999816</v>
+      </c>
+      <c r="F1557" s="15">
+        <v>5899.4599999999855</v>
+      </c>
+      <c r="G1557" s="7">
+        <v>-0.10115502096802176</v>
+      </c>
+      <c r="H1557" s="8">
+        <v>4.2642893419110985E-3</v>
+      </c>
+      <c r="I1557" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1557" s="10">
+        <v>95</v>
+      </c>
+      <c r="K1557" s="11">
+        <v>55.817894736841914</v>
+      </c>
+      <c r="L1557" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1558" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1558" s="4">
+        <v>1015</v>
+      </c>
+      <c r="C1558" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1558" s="16">
+        <v>39396.060000000092</v>
+      </c>
+      <c r="E1558" s="16">
+        <v>39396.060000000092</v>
+      </c>
+      <c r="F1558" s="15">
+        <v>55448.807999999968</v>
+      </c>
+      <c r="G1558" s="7">
+        <v>-0.28950573653449652</v>
+      </c>
+      <c r="H1558" s="8">
+        <v>3.1681256486561775E-2</v>
+      </c>
+      <c r="I1558" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1558" s="10">
+        <v>350</v>
+      </c>
+      <c r="K1558" s="11">
+        <v>112.56017142857169</v>
+      </c>
+      <c r="L1558" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1559" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1559" s="4">
+        <v>1049</v>
+      </c>
+      <c r="C1559" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1559" s="16">
+        <v>26037.130000000147</v>
+      </c>
+      <c r="E1559" s="16">
+        <v>26037.130000000147</v>
+      </c>
+      <c r="F1559" s="15">
+        <v>28505.275000000172</v>
+      </c>
+      <c r="G1559" s="7">
+        <v>-8.6585553024835282E-2</v>
+      </c>
+      <c r="H1559" s="8">
+        <v>2.0938362712006095E-2</v>
+      </c>
+      <c r="I1559" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1559" s="10">
+        <v>293</v>
+      </c>
+      <c r="K1559" s="11">
+        <v>88.863924914676275</v>
+      </c>
+      <c r="L1559" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1560" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1560" s="4">
+        <v>1029</v>
+      </c>
+      <c r="C1560" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1560" s="16">
+        <v>25064.320000000123</v>
+      </c>
+      <c r="E1560" s="16">
+        <v>25064.320000000123</v>
+      </c>
+      <c r="F1560" s="15">
+        <v>37942.681999999972</v>
+      </c>
+      <c r="G1560" s="7">
+        <v>-0.33941622787761438</v>
+      </c>
+      <c r="H1560" s="8">
+        <v>2.01560549603504E-2</v>
+      </c>
+      <c r="I1560" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1560" s="10">
+        <v>310</v>
+      </c>
+      <c r="K1560" s="11">
+        <v>80.852645161290724</v>
+      </c>
+      <c r="L1560" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1561" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1561" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C1561" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1561" s="16">
+        <v>64994.069999999905</v>
+      </c>
+      <c r="E1561" s="16">
+        <v>64994.069999999905</v>
+      </c>
+      <c r="F1561" s="15">
+        <v>76515.127000002103</v>
+      </c>
+      <c r="G1561" s="7">
+        <v>-0.1505722783417961</v>
+      </c>
+      <c r="H1561" s="8">
+        <v>5.2266490653520736E-2</v>
+      </c>
+      <c r="I1561" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1561" s="10">
+        <v>553</v>
+      </c>
+      <c r="K1561" s="11">
+        <v>117.52996383363455</v>
+      </c>
+      <c r="L1561" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1562" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1562" s="4">
+        <v>1057</v>
+      </c>
+      <c r="C1562" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1562" s="16">
+        <v>8810.4899999999852</v>
+      </c>
+      <c r="E1562" s="16">
+        <v>8810.4899999999852</v>
+      </c>
+      <c r="F1562" s="15">
+        <v>14163.238000000043</v>
+      </c>
+      <c r="G1562" s="7">
+        <v>-0.37793250385258237</v>
+      </c>
+      <c r="H1562" s="8">
+        <v>7.0851601267306052E-3</v>
+      </c>
+      <c r="I1562" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1562" s="10">
+        <v>257</v>
+      </c>
+      <c r="K1562" s="11">
+        <v>34.282062256809283</v>
+      </c>
+      <c r="L1562" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1563" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1563" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C1563" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1563" s="16">
+        <v>16499.249999999909</v>
+      </c>
+      <c r="E1563" s="16">
+        <v>16499.249999999909</v>
+      </c>
+      <c r="F1563" s="15">
+        <v>18118.244000000144</v>
+      </c>
+      <c r="G1563" s="7">
+        <v>-8.9357114298726836E-2</v>
+      </c>
+      <c r="H1563" s="8">
+        <v>1.3268255025652317E-2</v>
+      </c>
+      <c r="I1563" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1563" s="10">
+        <v>183</v>
+      </c>
+      <c r="K1563" s="11">
+        <v>90.159836065573273</v>
+      </c>
+      <c r="L1563" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1564" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1564" s="4">
+        <v>1012</v>
+      </c>
+      <c r="C1564" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1564" s="16">
+        <v>23695.910000000105</v>
+      </c>
+      <c r="E1564" s="16">
+        <v>23695.910000000105</v>
+      </c>
+      <c r="F1564" s="15">
+        <v>44538.358000000197</v>
+      </c>
+      <c r="G1564" s="7">
+        <v>-0.46796624159336986</v>
+      </c>
+      <c r="H1564" s="8">
+        <v>1.9055616282249686E-2</v>
+      </c>
+      <c r="I1564" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1564" s="10">
+        <v>296</v>
+      </c>
+      <c r="K1564" s="11">
+        <v>80.053750000000349</v>
+      </c>
+      <c r="L1564" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1565" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1565" s="4">
+        <v>1014</v>
+      </c>
+      <c r="C1565" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1565" s="16">
+        <v>17764.259999999955</v>
+      </c>
+      <c r="E1565" s="16">
+        <v>17764.259999999955</v>
+      </c>
+      <c r="F1565" s="15">
+        <v>29279.015000000098</v>
+      </c>
+      <c r="G1565" s="7">
+        <v>-0.39327672054541807</v>
+      </c>
+      <c r="H1565" s="8">
+        <v>1.4285542192644825E-2</v>
+      </c>
+      <c r="I1565" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1565" s="10">
+        <v>178</v>
+      </c>
+      <c r="K1565" s="11">
+        <v>99.79921348314582</v>
+      </c>
+      <c r="L1565" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1566" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1566" s="4">
+        <v>1050</v>
+      </c>
+      <c r="C1566" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1566" s="16">
+        <v>4332.1699999999937</v>
+      </c>
+      <c r="E1566" s="16">
+        <v>4332.1699999999937</v>
+      </c>
+      <c r="F1566" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1566" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1566" s="8">
+        <v>3.4838151052005656E-3</v>
+      </c>
+      <c r="I1566" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1566" s="10">
+        <v>178</v>
+      </c>
+      <c r="K1566" s="11">
+        <v>24.338033707865133</v>
+      </c>
+      <c r="L1566" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1567" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1567" s="4">
+        <v>1045</v>
+      </c>
+      <c r="C1567" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1567" s="16">
+        <v>0</v>
+      </c>
+      <c r="E1567" s="16">
+        <v>0</v>
+      </c>
+      <c r="F1567" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1567" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1567" s="8">
+        <v>0</v>
+      </c>
+      <c r="I1567" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1567" s="10">
+        <v>178</v>
+      </c>
+      <c r="K1567" s="11">
+        <v>0</v>
+      </c>
+      <c r="L1567" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1568" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1568" s="4">
+        <v>1020</v>
+      </c>
+      <c r="C1568" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1568" s="16">
+        <v>13384.509999999982</v>
+      </c>
+      <c r="E1568" s="16">
+        <v>13384.509999999982</v>
+      </c>
+      <c r="F1568" s="15">
+        <v>13583.669999999966</v>
+      </c>
+      <c r="G1568" s="7">
+        <v>-1.4661722494729634E-2</v>
+      </c>
+      <c r="H1568" s="8">
+        <v>1.0698612264452434E-2</v>
+      </c>
+      <c r="I1568" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1568" s="10">
+        <v>75</v>
+      </c>
+      <c r="K1568" s="11">
+        <v>178.46013333333309</v>
+      </c>
+      <c r="L1568" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1569" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1569" s="4">
+        <v>1019</v>
+      </c>
+      <c r="C1569" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1569" s="16">
+        <v>7955.6999999999653</v>
+      </c>
+      <c r="E1569" s="16">
+        <v>7955.6999999999653</v>
+      </c>
+      <c r="F1569" s="15">
+        <v>10307.659999999976</v>
+      </c>
+      <c r="G1569" s="7">
+        <v>-0.22817593905891509</v>
+      </c>
+      <c r="H1569" s="8">
+        <v>6.3592129702397743E-3</v>
+      </c>
+      <c r="I1569" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1569" s="10">
+        <v>49</v>
+      </c>
+      <c r="K1569" s="11">
+        <v>162.36122448979521</v>
+      </c>
+      <c r="L1569" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1570" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1570" s="4">
+        <v>1021</v>
+      </c>
+      <c r="C1570" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1570" s="16">
+        <v>11206.299999999963</v>
+      </c>
+      <c r="E1570" s="16">
+        <v>11206.299999999963</v>
+      </c>
+      <c r="F1570" s="15">
+        <v>11614.44999999997</v>
+      </c>
+      <c r="G1570" s="7">
+        <v>-3.5141569338195788E-2</v>
+      </c>
+      <c r="H1570" s="8">
+        <v>8.9575082404311449E-3</v>
+      </c>
+      <c r="I1570" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1570" s="10">
+        <v>68</v>
+      </c>
+      <c r="K1570" s="11">
+        <v>164.79852941176415</v>
+      </c>
+      <c r="L1570" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1571" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1571" s="4">
+        <v>1030</v>
+      </c>
+      <c r="C1571" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1571" s="16">
+        <v>23548.930000000058</v>
+      </c>
+      <c r="E1571" s="16">
+        <v>23548.930000000058</v>
+      </c>
+      <c r="F1571" s="15">
+        <v>32321.036000000626</v>
+      </c>
+      <c r="G1571" s="7">
+        <v>-0.27140547103751245</v>
+      </c>
+      <c r="H1571" s="8">
+        <v>1.8823316752928036E-2</v>
+      </c>
+      <c r="I1571" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1571" s="10">
+        <v>278</v>
+      </c>
+      <c r="K1571" s="11">
+        <v>84.708381294964241</v>
+      </c>
+      <c r="L1571" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1572" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1572" s="4">
+        <v>1043</v>
+      </c>
+      <c r="C1572" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1572" s="16">
+        <v>22456.740000000016</v>
+      </c>
+      <c r="E1572" s="16">
+        <v>22456.740000000016</v>
+      </c>
+      <c r="F1572" s="15">
+        <v>30237.854000000621</v>
+      </c>
+      <c r="G1572" s="7">
+        <v>-0.25733023249601128</v>
+      </c>
+      <c r="H1572" s="8">
+        <v>1.7950298814347333E-2</v>
+      </c>
+      <c r="I1572" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1572" s="10">
+        <v>288</v>
+      </c>
+      <c r="K1572" s="11">
+        <v>77.974791666666718</v>
+      </c>
+      <c r="L1572" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1573" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1573" s="4">
+        <v>1046</v>
+      </c>
+      <c r="C1573" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1573" s="16">
+        <v>5897.139999999994</v>
+      </c>
+      <c r="E1573" s="16">
+        <v>5897.139999999994</v>
+      </c>
+      <c r="F1573" s="15">
+        <v>9166.9419999999736</v>
+      </c>
+      <c r="G1573" s="7">
+        <v>-0.35669495890777847</v>
+      </c>
+      <c r="H1573" s="8">
+        <v>4.7137485293965217E-3</v>
+      </c>
+      <c r="I1573" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1573" s="10">
+        <v>159</v>
+      </c>
+      <c r="K1573" s="11">
+        <v>37.088930817610027</v>
+      </c>
+      <c r="L1573" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1574" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1574" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C1574" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1574" s="16">
+        <v>11521.359999999982</v>
+      </c>
+      <c r="E1574" s="16">
+        <v>11521.359999999982</v>
+      </c>
+      <c r="F1574" s="15">
+        <v>11514.436999999976</v>
+      </c>
+      <c r="G1574" s="7">
+        <v>6.0124520200210974E-4</v>
+      </c>
+      <c r="H1574" s="8">
+        <v>9.2093444884550624E-3</v>
+      </c>
+      <c r="I1574" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1574" s="10">
+        <v>184</v>
+      </c>
+      <c r="K1574" s="11">
+        <v>62.616086956521642</v>
+      </c>
+      <c r="L1574" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1575" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1575" s="4">
+        <v>1047</v>
+      </c>
+      <c r="C1575" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1575" s="16">
+        <v>14935.769999999948</v>
+      </c>
+      <c r="E1575" s="16">
+        <v>14935.769999999948</v>
+      </c>
+      <c r="F1575" s="15">
+        <v>31331.567000000588</v>
+      </c>
+      <c r="G1575" s="7">
+        <v>-0.52329961664542135</v>
+      </c>
+      <c r="H1575" s="8">
+        <v>1.1938577661867365E-2</v>
+      </c>
+      <c r="I1575" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1575" s="10">
+        <v>249</v>
+      </c>
+      <c r="K1575" s="11">
+        <v>59.983012048192563</v>
+      </c>
+      <c r="L1575" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1576" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1576" s="4">
+        <v>1011</v>
+      </c>
+      <c r="C1576" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1576" s="16">
+        <v>25745.260000000071</v>
+      </c>
+      <c r="E1576" s="16">
+        <v>25745.260000000071</v>
+      </c>
+      <c r="F1576" s="15">
+        <v>27194.802000000567</v>
+      </c>
+      <c r="G1576" s="7">
+        <v>-5.3302171495878681E-2</v>
+      </c>
+      <c r="H1576" s="8">
+        <v>2.0578904598488684E-2</v>
+      </c>
+      <c r="I1576" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1576" s="10">
+        <v>293</v>
+      </c>
+      <c r="K1576" s="11">
+        <v>87.867781569966112</v>
+      </c>
+      <c r="L1576" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1577" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1577" s="4">
+        <v>1059</v>
+      </c>
+      <c r="C1577" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1577" s="16">
+        <v>21733.53000000005</v>
+      </c>
+      <c r="E1577" s="16">
+        <v>21733.53000000005</v>
+      </c>
+      <c r="F1577" s="15">
+        <v>28975.639000000556</v>
+      </c>
+      <c r="G1577" s="7">
+        <v>-0.24993785296677551</v>
+      </c>
+      <c r="H1577" s="8">
+        <v>1.7372216884132909E-2</v>
+      </c>
+      <c r="I1577" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1577" s="10">
+        <v>273</v>
+      </c>
+      <c r="K1577" s="11">
+        <v>79.610000000000184</v>
+      </c>
+      <c r="L1577" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1578" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1578" s="4">
+        <v>1063</v>
+      </c>
+      <c r="C1578" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1578" s="16">
+        <v>12187.069999999976</v>
+      </c>
+      <c r="E1578" s="16">
+        <v>12187.069999999976</v>
+      </c>
+      <c r="F1578" s="15">
+        <v>18717.941000000235</v>
+      </c>
+      <c r="G1578" s="7">
+        <v>-0.3489096904408544</v>
+      </c>
+      <c r="H1578" s="8">
+        <v>9.7414650644469039E-3</v>
+      </c>
+      <c r="I1578" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1578" s="10">
+        <v>236</v>
+      </c>
+      <c r="K1578" s="11">
+        <v>51.640127118643967</v>
+      </c>
+      <c r="L1578" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1579" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1579" s="4">
+        <v>1065</v>
+      </c>
+      <c r="C1579" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1579" s="16">
+        <v>14187.529999999973</v>
+      </c>
+      <c r="E1579" s="16">
+        <v>14187.529999999973</v>
+      </c>
+      <c r="F1579" s="15">
+        <v>17080.294999999976</v>
+      </c>
+      <c r="G1579" s="7">
+        <v>-0.16936270714293911</v>
+      </c>
+      <c r="H1579" s="8">
+        <v>1.1340488554327857E-2</v>
+      </c>
+      <c r="I1579" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1579" s="10">
+        <v>232</v>
+      </c>
+      <c r="K1579" s="11">
+        <v>61.153146551724021</v>
+      </c>
+      <c r="L1579" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1580" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1580" s="4">
+        <v>1013</v>
+      </c>
+      <c r="C1580" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1580" s="16">
+        <v>28161.670000000064</v>
+      </c>
+      <c r="E1580" s="16">
+        <v>28161.670000000064</v>
+      </c>
+      <c r="F1580" s="15">
+        <v>32457.138000000828</v>
+      </c>
+      <c r="G1580" s="7">
+        <v>-0.13234278388934528</v>
+      </c>
+      <c r="H1580" s="8">
+        <v>2.251040852817647E-2</v>
+      </c>
+      <c r="I1580" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1580" s="10">
+        <v>401</v>
+      </c>
+      <c r="K1580" s="11">
+        <v>70.228603491271983</v>
+      </c>
+      <c r="L1580" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1581" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1581" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C1581" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1581" s="16">
+        <v>15203.349999999949</v>
+      </c>
+      <c r="E1581" s="16">
+        <v>15203.349999999949</v>
+      </c>
+      <c r="F1581" s="15">
+        <v>14829.44199999991</v>
+      </c>
+      <c r="G1581" s="7">
+        <v>2.5213895438549905E-2</v>
+      </c>
+      <c r="H1581" s="8">
+        <v>1.2152461821221889E-2</v>
+      </c>
+      <c r="I1581" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1581" s="10">
+        <v>163</v>
+      </c>
+      <c r="K1581" s="11">
+        <v>93.272085889570235</v>
+      </c>
+      <c r="L1581" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1582" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1582" s="4">
+        <v>1066</v>
+      </c>
+      <c r="C1582" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1582" s="16">
+        <v>30137.360000000033</v>
+      </c>
+      <c r="E1582" s="16">
+        <v>30137.360000000033</v>
+      </c>
+      <c r="F1582" s="15">
+        <v>35991.510000000104</v>
+      </c>
+      <c r="G1582" s="7">
+        <v>-0.16265363692715462</v>
+      </c>
+      <c r="H1582" s="8">
+        <v>2.40896326659862E-2</v>
+      </c>
+      <c r="I1582" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1582" s="10">
+        <v>373</v>
+      </c>
+      <c r="K1582" s="11">
+        <v>80.797211796246742</v>
+      </c>
+      <c r="L1582" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1583" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1583" s="4">
+        <v>1061</v>
+      </c>
+      <c r="C1583" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1583" s="16">
+        <v>8297.5599999999813</v>
+      </c>
+      <c r="E1583" s="16">
+        <v>8297.5599999999813</v>
+      </c>
+      <c r="F1583" s="15">
+        <v>9574.1939999999486</v>
+      </c>
+      <c r="G1583" s="7">
+        <v>-0.13334114600142577</v>
+      </c>
+      <c r="H1583" s="8">
+        <v>6.6324712059709209E-3</v>
+      </c>
+      <c r="I1583" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1583" s="10">
+        <v>97</v>
+      </c>
+      <c r="K1583" s="11">
+        <v>85.541855670102905</v>
+      </c>
+      <c r="L1583" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1584" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1584" s="4">
+        <v>1023</v>
+      </c>
+      <c r="C1584" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1584" s="16">
+        <v>8574.8099999999758</v>
+      </c>
+      <c r="E1584" s="16">
+        <v>8574.8099999999758</v>
+      </c>
+      <c r="F1584" s="15">
+        <v>9354.5919999999678</v>
+      </c>
+      <c r="G1584" s="7">
+        <v>-8.3358205253633133E-2</v>
+      </c>
+      <c r="H1584" s="8">
+        <v>6.8540848661138316E-3</v>
+      </c>
+      <c r="I1584" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1584" s="10">
+        <v>122</v>
+      </c>
+      <c r="K1584" s="11">
+        <v>70.285327868852264</v>
+      </c>
+      <c r="L1584" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1585" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1585" s="4">
+        <v>1068</v>
+      </c>
+      <c r="C1585" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1585" s="16">
+        <v>16188.709999999946</v>
+      </c>
+      <c r="E1585" s="16">
+        <v>16188.709999999946</v>
+      </c>
+      <c r="F1585" s="15">
+        <v>19773.99000000002</v>
+      </c>
+      <c r="G1585" s="7">
+        <v>-0.18131292672849886</v>
+      </c>
+      <c r="H1585" s="8">
+        <v>1.2940087560296448E-2</v>
+      </c>
+      <c r="I1585" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1585" s="10">
+        <v>255</v>
+      </c>
+      <c r="K1585" s="11">
+        <v>63.485137254901751</v>
+      </c>
+      <c r="L1585" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1586" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1586" s="4">
+        <v>1017</v>
+      </c>
+      <c r="C1586" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1586" s="16">
+        <v>19815.339999999997</v>
+      </c>
+      <c r="E1586" s="16">
+        <v>19815.339999999997</v>
+      </c>
+      <c r="F1586" s="15">
+        <v>23115.399000000238</v>
+      </c>
+      <c r="G1586" s="7">
+        <v>-0.14276452679878926</v>
+      </c>
+      <c r="H1586" s="8">
+        <v>1.5838954100545716E-2</v>
+      </c>
+      <c r="I1586" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1586" s="10">
+        <v>157</v>
+      </c>
+      <c r="K1586" s="11">
+        <v>126.21235668789807</v>
+      </c>
+      <c r="L1586" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1587" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1587" s="4">
+        <v>1040</v>
+      </c>
+      <c r="C1587" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1587" s="16">
+        <v>18875.200000000004</v>
+      </c>
+      <c r="E1587" s="16">
+        <v>18875.200000000004</v>
+      </c>
+      <c r="F1587" s="15">
+        <v>25707.124000000516</v>
+      </c>
+      <c r="G1587" s="7">
+        <v>-0.26575995043243172</v>
+      </c>
+      <c r="H1587" s="8">
+        <v>1.5087473969087616E-2</v>
+      </c>
+      <c r="I1587" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1587" s="10">
+        <v>322</v>
+      </c>
+      <c r="K1587" s="11">
+        <v>58.618633540372684</v>
+      </c>
+      <c r="L1587" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1588" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1588" s="4">
+        <v>1027</v>
+      </c>
+      <c r="C1588" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1588" s="16">
+        <v>57712.26</v>
+      </c>
+      <c r="E1588" s="16">
+        <v>57712.26</v>
+      </c>
+      <c r="F1588" s="15">
+        <v>63614.310999999907</v>
+      </c>
+      <c r="G1588" s="7">
+        <v>-9.2778667366214429E-2</v>
+      </c>
+      <c r="H1588" s="8">
+        <v>4.613101956255914E-2</v>
+      </c>
+      <c r="I1588" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1588" s="10">
+        <v>322</v>
+      </c>
+      <c r="K1588" s="11">
+        <v>179.23062111801244</v>
+      </c>
+      <c r="L1588" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1589" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1589" s="4">
+        <v>1044</v>
+      </c>
+      <c r="C1589" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1589" s="16">
+        <v>10742.399999999974</v>
+      </c>
+      <c r="E1589" s="16">
+        <v>10742.399999999974</v>
+      </c>
+      <c r="F1589" s="15">
+        <v>19936.740000000293</v>
+      </c>
+      <c r="G1589" s="7">
+        <v>-0.46117569873510833</v>
+      </c>
+      <c r="H1589" s="8">
+        <v>8.5867000278421618E-3</v>
+      </c>
+      <c r="I1589" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1589" s="10">
+        <v>216</v>
+      </c>
+      <c r="K1589" s="11">
+        <v>49.733333333333213</v>
+      </c>
+      <c r="L1589" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1590" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1590" s="4">
+        <v>1048</v>
+      </c>
+      <c r="C1590" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1590" s="16">
+        <v>28176.320000000043</v>
+      </c>
+      <c r="E1590" s="16">
+        <v>28176.320000000043</v>
+      </c>
+      <c r="F1590" s="15">
+        <v>33775.424000000334</v>
+      </c>
+      <c r="G1590" s="7">
+        <v>-0.16577449923353249</v>
+      </c>
+      <c r="H1590" s="8">
+        <v>2.2522118681904475E-2</v>
+      </c>
+      <c r="I1590" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1590" s="10">
+        <v>275</v>
+      </c>
+      <c r="K1590" s="11">
+        <v>102.45934545454561</v>
+      </c>
+      <c r="L1590" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1591" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1591" s="4">
+        <v>1031</v>
+      </c>
+      <c r="C1591" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1591" s="16">
+        <v>65680.590000000084</v>
+      </c>
+      <c r="E1591" s="16">
+        <v>65680.590000000084</v>
+      </c>
+      <c r="F1591" s="15">
+        <v>87371.001000001037</v>
+      </c>
+      <c r="G1591" s="7">
+        <v>-0.24825640946932381</v>
+      </c>
+      <c r="H1591" s="8">
+        <v>5.2500328044169993E-2</v>
+      </c>
+      <c r="I1591" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1591" s="10">
+        <v>536</v>
+      </c>
+      <c r="K1591" s="11">
+        <v>122.53841417910463</v>
+      </c>
+      <c r="L1591" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1592" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1592" s="4">
+        <v>1042</v>
+      </c>
+      <c r="C1592" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1592" s="16">
+        <v>14450.159999999956</v>
+      </c>
+      <c r="E1592" s="16">
+        <v>14450.159999999956</v>
+      </c>
+      <c r="F1592" s="15">
+        <v>19123.687000000173</v>
+      </c>
+      <c r="G1592" s="7">
+        <v>-0.24438420269063044</v>
+      </c>
+      <c r="H1592" s="8">
+        <v>1.1550416040579723E-2</v>
+      </c>
+      <c r="I1592" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1592" s="10">
+        <v>130</v>
+      </c>
+      <c r="K1592" s="11">
+        <v>111.15507692307659</v>
+      </c>
+      <c r="L1592" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1593" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1593" s="4">
+        <v>1025</v>
+      </c>
+      <c r="C1593" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1593" s="16">
+        <v>21131.920000000013</v>
+      </c>
+      <c r="E1593" s="16">
+        <v>21131.920000000013</v>
+      </c>
+      <c r="F1593" s="15">
+        <v>31388.048000000679</v>
+      </c>
+      <c r="G1593" s="7">
+        <v>-0.32675265438616774</v>
+      </c>
+      <c r="H1593" s="8">
+        <v>1.6891333226500493E-2</v>
+      </c>
+      <c r="I1593" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1593" s="10">
+        <v>359</v>
+      </c>
+      <c r="K1593" s="11">
+        <v>58.863286908078031</v>
+      </c>
+      <c r="L1593" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1594" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1594" s="4">
+        <v>1067</v>
+      </c>
+      <c r="C1594" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1594" s="16">
+        <v>25095.820000000112</v>
+      </c>
+      <c r="E1594" s="16">
+        <v>25095.820000000112</v>
+      </c>
+      <c r="F1594" s="15">
+        <v>30666.313000000813</v>
+      </c>
+      <c r="G1594" s="7">
+        <v>-0.18164860575187347</v>
+      </c>
+      <c r="H1594" s="8">
+        <v>2.005978908742212E-2</v>
+      </c>
+      <c r="I1594" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1594" s="10">
+        <v>418</v>
+      </c>
+      <c r="K1594" s="11">
+        <v>60.037846889952419</v>
+      </c>
+      <c r="L1594" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1595" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1595" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C1595" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1595" s="16">
+        <v>61536.229999999909</v>
+      </c>
+      <c r="E1595" s="16">
+        <v>61536.229999999909</v>
+      </c>
+      <c r="F1595" s="15">
+        <v>77829.01900000147</v>
+      </c>
+      <c r="G1595" s="7">
+        <v>-0.20934079870647293</v>
+      </c>
+      <c r="H1595" s="8">
+        <v>4.9187625470500276E-2</v>
+      </c>
+      <c r="I1595" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1595" s="10">
+        <v>337</v>
+      </c>
+      <c r="K1595" s="11">
+        <v>182.60008902077124</v>
+      </c>
+      <c r="L1595" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1596" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1596" s="4">
+        <v>1010</v>
+      </c>
+      <c r="C1596" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1596" s="16">
+        <v>10828.809999999976</v>
+      </c>
+      <c r="E1596" s="16">
+        <v>10828.809999999976</v>
+      </c>
+      <c r="F1596" s="15">
+        <v>8730.2549999999665</v>
+      </c>
+      <c r="G1596" s="7">
+        <v>0.24037728565775196</v>
+      </c>
+      <c r="H1596" s="8">
+        <v>8.6557699516399966E-3</v>
+      </c>
+      <c r="I1596" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1596" s="10">
+        <v>125</v>
+      </c>
+      <c r="K1596" s="11">
+        <v>86.630479999999807</v>
+      </c>
+      <c r="L1596" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1597" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1597" s="4">
+        <v>1032</v>
+      </c>
+      <c r="C1597" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1597" s="16">
+        <v>17689.659999999978</v>
+      </c>
+      <c r="E1597" s="16">
+        <v>17689.659999999978</v>
+      </c>
+      <c r="F1597" s="15">
+        <v>23428.732000000367</v>
+      </c>
+      <c r="G1597" s="7">
+        <v>-0.24495871138055181</v>
+      </c>
+      <c r="H1597" s="8">
+        <v>1.4139838771086401E-2</v>
+      </c>
+      <c r="I1597" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1597" s="10">
+        <v>211</v>
+      </c>
+      <c r="K1597" s="11">
+        <v>83.837251184834017</v>
+      </c>
+      <c r="L1597" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1598" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1598" s="4">
+        <v>1054</v>
+      </c>
+      <c r="C1598" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1598" s="16">
+        <v>32684.960000000166</v>
+      </c>
+      <c r="E1598" s="16">
+        <v>32684.960000000166</v>
+      </c>
+      <c r="F1598" s="15">
+        <v>37648.963972999438</v>
+      </c>
+      <c r="G1598" s="7">
+        <v>-0.13184968320932511</v>
+      </c>
+      <c r="H1598" s="8">
+        <v>2.6126000422812597E-2</v>
+      </c>
+      <c r="I1598" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1598" s="10">
+        <v>312</v>
+      </c>
+      <c r="K1598" s="11">
+        <v>104.75948717948771</v>
+      </c>
+      <c r="L1598" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1599" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1599" s="4">
+        <v>1033</v>
+      </c>
+      <c r="C1599" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1599" s="16">
+        <v>52055.72999999996</v>
+      </c>
+      <c r="E1599" s="16">
+        <v>52055.72999999996</v>
+      </c>
+      <c r="F1599" s="15">
+        <v>67719.13100000027</v>
+      </c>
+      <c r="G1599" s="7">
+        <v>-0.23129949792179483</v>
+      </c>
+      <c r="H1599" s="8">
+        <v>4.1609597319066952E-2</v>
+      </c>
+      <c r="I1599" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1599" s="10">
+        <v>436</v>
+      </c>
+      <c r="K1599" s="11">
+        <v>119.3938761467889</v>
+      </c>
+      <c r="L1599" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1600" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1600" s="4">
+        <v>1062</v>
+      </c>
+      <c r="C1600" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1600" s="16">
+        <v>6703.5199999999722</v>
+      </c>
+      <c r="E1600" s="16">
+        <v>6703.5199999999722</v>
+      </c>
+      <c r="F1600" s="15">
+        <v>5877.8029999999726</v>
+      </c>
+      <c r="G1600" s="7">
+        <v>0.14048055030085282</v>
+      </c>
+      <c r="H1600" s="8">
+        <v>5.3583105610143346E-3</v>
+      </c>
+      <c r="I1600" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1600" s="10">
+        <v>67</v>
+      </c>
+      <c r="K1600" s="11">
+        <v>100.05253731343242</v>
+      </c>
+      <c r="L1600" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1601" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1601" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C1601" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1601" s="16">
+        <v>58441.990000000049</v>
+      </c>
+      <c r="E1601" s="16">
+        <v>58441.990000000049</v>
+      </c>
+      <c r="F1601" s="15">
+        <v>48338.932000000008</v>
+      </c>
+      <c r="G1601" s="7">
+        <v>0.20900457626991087</v>
+      </c>
+      <c r="H1601" s="8">
+        <v>4.6714313110678522E-2</v>
+      </c>
+      <c r="I1601" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1601" s="10">
+        <v>245</v>
+      </c>
+      <c r="K1601" s="11">
+        <v>238.53873469387776</v>
+      </c>
+      <c r="L1601" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1602" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1602" s="4">
+        <v>1024</v>
+      </c>
+      <c r="C1602" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1602" s="16">
+        <v>27482.900000000122</v>
+      </c>
+      <c r="E1602" s="16">
+        <v>27482.900000000122</v>
+      </c>
+      <c r="F1602" s="15">
+        <v>41203.480999999869</v>
+      </c>
+      <c r="G1602" s="7">
+        <v>-0.33299567577797107</v>
+      </c>
+      <c r="H1602" s="8">
+        <v>2.1967848729816889E-2</v>
+      </c>
+      <c r="I1602" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1602" s="10">
+        <v>374</v>
+      </c>
+      <c r="K1602" s="11">
+        <v>73.48368983957252</v>
+      </c>
+      <c r="L1602" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1603" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1603" s="4">
+        <v>1058</v>
+      </c>
+      <c r="C1603" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1603" s="16">
+        <v>18247.660000000003</v>
+      </c>
+      <c r="E1603" s="16">
+        <v>18247.660000000003</v>
+      </c>
+      <c r="F1603" s="15">
+        <v>24431.087000000349</v>
+      </c>
+      <c r="G1603" s="7">
+        <v>-0.25309667965245497</v>
+      </c>
+      <c r="H1603" s="8">
+        <v>1.4585863739020584E-2</v>
+      </c>
+      <c r="I1603" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1603" s="10">
+        <v>302</v>
+      </c>
+      <c r="K1603" s="11">
+        <v>60.422715231788089</v>
+      </c>
+      <c r="L1603" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1604" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1604" s="4">
+        <v>1053</v>
+      </c>
+      <c r="C1604" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1604" s="16">
+        <v>21481.229999999996</v>
+      </c>
+      <c r="E1604" s="16">
+        <v>21481.229999999996</v>
+      </c>
+      <c r="F1604" s="15">
+        <v>31833.233000000564</v>
+      </c>
+      <c r="G1604" s="7">
+        <v>-0.32519483647797842</v>
+      </c>
+      <c r="H1604" s="8">
+        <v>1.7170546455083063E-2</v>
+      </c>
+      <c r="I1604" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1604" s="10">
+        <v>219</v>
+      </c>
+      <c r="K1604" s="11">
+        <v>98.087808219178058</v>
+      </c>
+      <c r="L1604" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1605" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1605" s="4">
+        <v>1028</v>
+      </c>
+      <c r="C1605" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1605" s="16">
+        <v>36785.810000000121</v>
+      </c>
+      <c r="E1605" s="16">
+        <v>36785.810000000121</v>
+      </c>
+      <c r="F1605" s="15">
+        <v>68003.837000000873</v>
+      </c>
+      <c r="G1605" s="7">
+        <v>-0.45906272906336665</v>
+      </c>
+      <c r="H1605" s="8">
+        <v>2.9403924239573866E-2</v>
+      </c>
+      <c r="I1605" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1605" s="10">
+        <v>414</v>
+      </c>
+      <c r="K1605" s="11">
+        <v>88.854613526570347</v>
+      </c>
+      <c r="L1605" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1606" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1606" s="4">
+        <v>1026</v>
+      </c>
+      <c r="C1606" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1606" s="16">
+        <v>8182.99</v>
+      </c>
+      <c r="E1606" s="16">
+        <v>8182.99</v>
+      </c>
+      <c r="F1606" s="15">
+        <v>10045.115999999993</v>
+      </c>
+      <c r="G1606" s="7">
+        <v>-0.18537625648125855</v>
+      </c>
+      <c r="H1606" s="8">
+        <v>6.5408922085225182E-3</v>
+      </c>
+      <c r="I1606" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1606" s="10">
+        <v>255</v>
+      </c>
+      <c r="K1606" s="11">
+        <v>32.090156862745097</v>
+      </c>
+      <c r="L1606" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1607" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1607" s="4">
+        <v>1052</v>
+      </c>
+      <c r="C1607" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1607" s="16">
+        <v>4999.7799999999761</v>
+      </c>
+      <c r="E1607" s="16">
+        <v>4999.7799999999761</v>
+      </c>
+      <c r="F1607" s="15">
+        <v>5793.4479999999548</v>
+      </c>
+      <c r="G1607" s="7">
+        <v>-0.13699406640052436</v>
+      </c>
+      <c r="H1607" s="8">
+        <v>3.9964636454800214E-3</v>
+      </c>
+      <c r="I1607" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1607" s="10">
+        <v>125</v>
+      </c>
+      <c r="K1607" s="11">
+        <v>39.998239999999811</v>
+      </c>
+      <c r="L1607" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1608" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1608" s="4">
+        <v>1060</v>
+      </c>
+      <c r="C1608" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1608" s="16">
+        <v>14647.899999999987</v>
+      </c>
+      <c r="E1608" s="16">
+        <v>14647.899999999987</v>
+      </c>
+      <c r="F1608" s="15">
+        <v>20234.168000000322</v>
+      </c>
+      <c r="G1608" s="7">
+        <v>-0.27608093399245504</v>
+      </c>
+      <c r="H1608" s="8">
+        <v>1.1708475139431542E-2</v>
+      </c>
+      <c r="I1608" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1608" s="10">
+        <v>344</v>
+      </c>
+      <c r="K1608" s="11">
+        <v>42.581104651162754</v>
+      </c>
+      <c r="L1608" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1609" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1609" s="4">
+        <v>1016</v>
+      </c>
+      <c r="C1609" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1609" s="16">
+        <v>66064.560000000216</v>
+      </c>
+      <c r="E1609" s="16">
+        <v>66064.560000000216</v>
+      </c>
+      <c r="F1609" s="15">
+        <v>79844.958000002109</v>
+      </c>
+      <c r="G1609" s="7">
+        <v>-0.17258945768374667</v>
+      </c>
+      <c r="H1609" s="8">
+        <v>5.2807245977750168E-2</v>
+      </c>
+      <c r="I1609" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1609" s="10">
+        <v>628</v>
+      </c>
+      <c r="K1609" s="11">
+        <v>105.19834394904493</v>
+      </c>
+      <c r="L1609" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1610" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1610" s="4">
+        <v>1055</v>
+      </c>
+      <c r="C1610" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1610" s="16">
+        <v>15543.890000000003</v>
+      </c>
+      <c r="E1610" s="16">
+        <v>15543.890000000003</v>
+      </c>
+      <c r="F1610" s="15">
+        <v>15910.07599999991</v>
+      </c>
+      <c r="G1610" s="7">
+        <v>-2.3015980564763394E-2</v>
+      </c>
+      <c r="H1610" s="8">
+        <v>1.2424664944125694E-2</v>
+      </c>
+      <c r="I1610" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1610" s="10">
+        <v>290</v>
+      </c>
+      <c r="K1610" s="11">
+        <v>53.599620689655183</v>
+      </c>
+      <c r="L1610" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1611" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1611" s="4">
+        <v>1056</v>
+      </c>
+      <c r="C1611" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1611" s="16">
+        <v>6296.9999999999873</v>
+      </c>
+      <c r="E1611" s="16">
+        <v>6296.9999999999873</v>
+      </c>
+      <c r="F1611" s="15">
+        <v>5437.3989999999785</v>
+      </c>
+      <c r="G1611" s="7">
+        <v>0.15809047671506393</v>
+      </c>
+      <c r="H1611" s="8">
+        <v>5.0333677833000181E-3</v>
+      </c>
+      <c r="I1611" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1611" s="10">
+        <v>95</v>
+      </c>
+      <c r="K1611" s="11">
+        <v>66.284210526315661</v>
+      </c>
+      <c r="L1611" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1612" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1612" s="4">
+        <v>1015</v>
+      </c>
+      <c r="C1612" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1612" s="16">
+        <v>41654.660000000091</v>
+      </c>
+      <c r="E1612" s="16">
+        <v>41654.660000000091</v>
+      </c>
+      <c r="F1612" s="15">
+        <v>52613.241499999152</v>
+      </c>
+      <c r="G1612" s="7">
+        <v>-0.20828561760444353</v>
+      </c>
+      <c r="H1612" s="8">
+        <v>3.3295731883169255E-2</v>
+      </c>
+      <c r="I1612" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1612" s="10">
+        <v>350</v>
+      </c>
+      <c r="K1612" s="11">
+        <v>119.01331428571454</v>
+      </c>
+      <c r="L1612" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1613" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1613" s="4">
+        <v>1049</v>
+      </c>
+      <c r="C1613" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1613" s="16">
+        <v>26673.580000000129</v>
+      </c>
+      <c r="E1613" s="16">
+        <v>26673.580000000129</v>
+      </c>
+      <c r="F1613" s="15">
+        <v>27342.054000000644</v>
+      </c>
+      <c r="G1613" s="7">
+        <v>-2.4448565568647496E-2</v>
+      </c>
+      <c r="H1613" s="8">
+        <v>2.1320936674174468E-2</v>
+      </c>
+      <c r="I1613" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1613" s="10">
+        <v>293</v>
+      </c>
+      <c r="K1613" s="11">
+        <v>91.036109215017504</v>
+      </c>
+      <c r="L1613" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1614" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1614" s="4">
+        <v>1029</v>
+      </c>
+      <c r="C1614" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1614" s="16">
+        <v>27007.650000000074</v>
+      </c>
+      <c r="E1614" s="16">
+        <v>27007.650000000074</v>
+      </c>
+      <c r="F1614" s="15">
+        <v>41638.001999999913</v>
+      </c>
+      <c r="G1614" s="7">
+        <v>-0.35137017381381241</v>
+      </c>
+      <c r="H1614" s="8">
+        <v>2.1587968145568268E-2</v>
+      </c>
+      <c r="I1614" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1614" s="10">
+        <v>310</v>
+      </c>
+      <c r="K1614" s="11">
+        <v>87.121451612903471</v>
+      </c>
+      <c r="L1614" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1615" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1615" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C1615" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1615" s="16">
+        <v>68218.909999999931</v>
+      </c>
+      <c r="E1615" s="16">
+        <v>68218.909999999931</v>
+      </c>
+      <c r="F1615" s="15">
+        <v>78575.977000001512</v>
+      </c>
+      <c r="G1615" s="7">
+        <v>-0.1318095860265458</v>
+      </c>
+      <c r="H1615" s="8">
+        <v>5.4529278038088581E-2</v>
+      </c>
+      <c r="I1615" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1615" s="10">
+        <v>553</v>
+      </c>
+      <c r="K1615" s="11">
+        <v>123.361500904159</v>
+      </c>
+      <c r="L1615" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1616" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1616" s="4">
+        <v>1057</v>
+      </c>
+      <c r="C1616" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1616" s="16">
+        <v>8571.8699999999862</v>
+      </c>
+      <c r="E1616" s="16">
+        <v>8571.8699999999862</v>
+      </c>
+      <c r="F1616" s="15">
+        <v>12166.80300000002</v>
+      </c>
+      <c r="G1616" s="7">
+        <v>-0.29547063431536025</v>
+      </c>
+      <c r="H1616" s="8">
+        <v>6.8517348420892403E-3</v>
+      </c>
+      <c r="I1616" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1616" s="10">
+        <v>257</v>
+      </c>
+      <c r="K1616" s="11">
+        <v>33.35357976653691</v>
+      </c>
+      <c r="L1616" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1617" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1617" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C1617" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1617" s="16">
+        <v>14995.069999999962</v>
+      </c>
+      <c r="E1617" s="16">
+        <v>14995.069999999962</v>
+      </c>
+      <c r="F1617" s="15">
+        <v>18717.404000000126</v>
+      </c>
+      <c r="G1617" s="7">
+        <v>-0.19887020657352583</v>
+      </c>
+      <c r="H1617" s="8">
+        <v>1.1985977806309125E-2</v>
+      </c>
+      <c r="I1617" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1617" s="10">
+        <v>183</v>
+      </c>
+      <c r="K1617" s="11">
+        <v>81.940273224043509</v>
+      </c>
+      <c r="L1617" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1618" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1618" s="4">
+        <v>1012</v>
+      </c>
+      <c r="C1618" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1618" s="16">
+        <v>28969.090000000098</v>
+      </c>
+      <c r="E1618" s="16">
+        <v>28969.090000000098</v>
+      </c>
+      <c r="F1618" s="15">
+        <v>46111.756000000059</v>
+      </c>
+      <c r="G1618" s="7">
+        <v>-0.37176346092740298</v>
+      </c>
+      <c r="H1618" s="8">
+        <v>2.3155801860809833E-2</v>
+      </c>
+      <c r="I1618" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1618" s="10">
+        <v>296</v>
+      </c>
+      <c r="K1618" s="11">
+        <v>97.868547297297624</v>
+      </c>
+      <c r="L1618" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1619" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1619" s="4">
+        <v>1014</v>
+      </c>
+      <c r="C1619" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1619" s="16">
+        <v>17029.559999999965</v>
+      </c>
+      <c r="E1619" s="16">
+        <v>17029.559999999965</v>
+      </c>
+      <c r="F1619" s="15">
+        <v>30027.115000000351</v>
+      </c>
+      <c r="G1619" s="7">
+        <v>-0.43286059949483102</v>
+      </c>
+      <c r="H1619" s="8">
+        <v>1.3612202424610871E-2</v>
+      </c>
+      <c r="I1619" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1619" s="10">
+        <v>178</v>
+      </c>
+      <c r="K1619" s="11">
+        <v>95.67168539325823</v>
+      </c>
+      <c r="L1619" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1620" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1620" s="4">
+        <v>1045</v>
+      </c>
+      <c r="C1620" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1620" s="16">
+        <v>0</v>
+      </c>
+      <c r="E1620" s="16">
+        <v>0</v>
+      </c>
+      <c r="F1620" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1620" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1620" s="8">
+        <v>0</v>
+      </c>
+      <c r="I1620" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1620" s="10">
+        <v>178</v>
+      </c>
+      <c r="K1620" s="11">
+        <v>0</v>
+      </c>
+      <c r="L1620" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1621" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1621" s="4">
+        <v>1050</v>
+      </c>
+      <c r="C1621" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1621" s="16">
+        <v>5252.719999999993</v>
+      </c>
+      <c r="E1621" s="16">
+        <v>5252.719999999993</v>
+      </c>
+      <c r="F1621" s="15">
+        <v>0</v>
+      </c>
+      <c r="G1621" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1621" s="8">
+        <v>3.4391835825649227E-3</v>
+      </c>
+      <c r="I1621" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1621" s="10">
+        <v>178</v>
+      </c>
+      <c r="K1621" s="11">
+        <v>24.972696629213427</v>
+      </c>
+      <c r="L1621" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G53">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106:G313">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G470:G521">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G574:G625">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G990:G1041">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1354:G1513">
+  <conditionalFormatting sqref="G1354:G1621">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/dfstoreTotal.xlsx
+++ b/dfstoreTotal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raymundo.AIMGROUP\Documents\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A677CB-5AE0-4752-A3D0-C2AF5221346E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FC5830-7543-4B91-988A-B27CA8844635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4C819F2-4AF9-4A6C-ADE0-8FDD16DFA0B1}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4954" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5120" uniqueCount="90">
   <si>
     <t>Sales Report</t>
   </si>
@@ -424,7 +424,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,6 +457,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma 2" xfId="3" xr:uid="{F45DE0E3-DBB9-4AFC-B0C2-B846F26E68AD}"/>
@@ -473,7 +474,27 @@
     <cellStyle name="Normal 6" xfId="8" xr:uid="{717BCEFE-90CD-4474-9D4C-8AD9E64DB798}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -854,9 +875,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB4736B-D2FA-4169-A4E7-16CED2D3917B}">
-  <dimension ref="A1:L1652"/>
+  <dimension ref="A1:L1707"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1671" workbookViewId="0">
+      <selection activeCell="A1707" sqref="A1707"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -63650,38 +63673,2136 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1653" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1653" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1653" s="4">
+        <v>1020</v>
+      </c>
+      <c r="C1653" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1653" s="16">
+        <v>14144.759999999964</v>
+      </c>
+      <c r="E1653" s="16">
+        <v>14144.759999999964</v>
+      </c>
+      <c r="F1653" s="16">
+        <v>13173.209999999959</v>
+      </c>
+      <c r="G1653" s="13">
+        <v>7.3751955673674763E-2</v>
+      </c>
+      <c r="H1653" s="14">
+        <v>1.1267270401871962E-2</v>
+      </c>
+      <c r="I1653" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1653" s="10">
+        <v>75</v>
+      </c>
+      <c r="K1653" s="11">
+        <v>188.59679999999952</v>
+      </c>
+      <c r="L1653" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1654" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1654" s="4">
+        <v>1019</v>
+      </c>
+      <c r="C1654" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1654" s="16">
+        <v>8367.8999999999724</v>
+      </c>
+      <c r="E1654" s="16">
+        <v>8367.8999999999724</v>
+      </c>
+      <c r="F1654" s="16">
+        <v>11197.239999999989</v>
+      </c>
+      <c r="G1654" s="13">
+        <v>-0.25268191089947334</v>
+      </c>
+      <c r="H1654" s="14">
+        <v>6.6656056374109086E-3</v>
+      </c>
+      <c r="I1654" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1654" s="10">
+        <v>49</v>
+      </c>
+      <c r="K1654" s="11">
+        <v>170.77346938775455</v>
+      </c>
+      <c r="L1654" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1655" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1655" s="4">
+        <v>1021</v>
+      </c>
+      <c r="C1655" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1655" s="16">
+        <v>11915.959999999963</v>
+      </c>
+      <c r="E1655" s="16">
+        <v>11915.959999999963</v>
+      </c>
+      <c r="F1655" s="16">
+        <v>12196.359999999981</v>
+      </c>
+      <c r="G1655" s="13">
+        <v>-2.2990466007892341E-2</v>
+      </c>
+      <c r="H1655" s="14">
+        <v>9.4918785060962609E-3</v>
+      </c>
+      <c r="I1655" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1655" s="10">
+        <v>68</v>
+      </c>
+      <c r="K1655" s="11">
+        <v>175.23470588235239</v>
+      </c>
+      <c r="L1655" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1656" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1656" s="4">
+        <v>1030</v>
+      </c>
+      <c r="C1656" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1656" s="16">
+        <v>24883.210000000083</v>
+      </c>
+      <c r="E1656" s="16">
+        <v>24883.210000000083</v>
+      </c>
+      <c r="F1656" s="16">
+        <v>31832.421000000642</v>
+      </c>
+      <c r="G1656" s="13">
+        <v>-0.21830607857317608</v>
+      </c>
+      <c r="H1656" s="14">
+        <v>1.9821181521394924E-2</v>
+      </c>
+      <c r="I1656" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1656" s="10">
+        <v>278</v>
+      </c>
+      <c r="K1656" s="11">
+        <v>89.507949640288061</v>
+      </c>
+      <c r="L1656" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1657" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1657" s="4">
+        <v>1043</v>
+      </c>
+      <c r="C1657" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1657" s="16">
+        <v>21619.579999999962</v>
+      </c>
+      <c r="E1657" s="16">
+        <v>21619.579999999962</v>
+      </c>
+      <c r="F1657" s="16">
+        <v>30984.279000000188</v>
+      </c>
+      <c r="G1657" s="13">
+        <v>-0.30224033936694705</v>
+      </c>
+      <c r="H1657" s="14">
+        <v>1.7221476634096528E-2</v>
+      </c>
+      <c r="I1657" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1657" s="10">
+        <v>288</v>
+      </c>
+      <c r="K1657" s="11">
+        <v>75.067986111110983</v>
+      </c>
+      <c r="L1657" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1658" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1658" s="4">
+        <v>1046</v>
+      </c>
+      <c r="C1658" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1658" s="16">
+        <v>4918.1999999999862</v>
+      </c>
+      <c r="E1658" s="16">
+        <v>4918.1999999999862</v>
+      </c>
+      <c r="F1658" s="16">
+        <v>15426.100000000004</v>
+      </c>
+      <c r="G1658" s="13">
+        <v>-0.6811767070095498</v>
+      </c>
+      <c r="H1658" s="14">
+        <v>3.9176832473995088E-3</v>
+      </c>
+      <c r="I1658" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1658" s="10">
+        <v>159</v>
+      </c>
+      <c r="K1658" s="11">
+        <v>30.932075471698028</v>
+      </c>
+      <c r="L1658" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1659" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1659" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C1659" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1659" s="16">
+        <v>11184.799999999956</v>
+      </c>
+      <c r="E1659" s="16">
+        <v>11184.799999999956</v>
+      </c>
+      <c r="F1659" s="16">
+        <v>12358.031999999943</v>
+      </c>
+      <c r="G1659" s="13">
+        <v>-9.4936798998416005E-2</v>
+      </c>
+      <c r="H1659" s="14">
+        <v>8.9094594740990549E-3</v>
+      </c>
+      <c r="I1659" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1659" s="10">
+        <v>184</v>
+      </c>
+      <c r="K1659" s="11">
+        <v>60.786956521738887</v>
+      </c>
+      <c r="L1659" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1660" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1660" s="4">
+        <v>1047</v>
+      </c>
+      <c r="C1660" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1660" s="16">
+        <v>18349.989999999947</v>
+      </c>
+      <c r="E1660" s="16">
+        <v>18349.989999999947</v>
+      </c>
+      <c r="F1660" s="16">
+        <v>30423.912000000619</v>
+      </c>
+      <c r="G1660" s="13">
+        <v>-0.3968563280093772</v>
+      </c>
+      <c r="H1660" s="14">
+        <v>1.4617024198476779E-2</v>
+      </c>
+      <c r="I1660" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1660" s="10">
+        <v>249</v>
+      </c>
+      <c r="K1660" s="11">
+        <v>73.694738955823084</v>
+      </c>
+      <c r="L1660" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1661" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1661" s="4">
+        <v>1011</v>
+      </c>
+      <c r="C1661" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1661" s="16">
+        <v>25541.570000000138</v>
+      </c>
+      <c r="E1661" s="16">
+        <v>25541.570000000138</v>
+      </c>
+      <c r="F1661" s="16">
+        <v>28582.980000000611</v>
+      </c>
+      <c r="G1661" s="13">
+        <v>-0.10640632992082732</v>
+      </c>
+      <c r="H1661" s="14">
+        <v>2.0345610365841708E-2</v>
+      </c>
+      <c r="I1661" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1661" s="10">
+        <v>293</v>
+      </c>
+      <c r="K1661" s="11">
+        <v>87.172593856655766</v>
+      </c>
+      <c r="L1661" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1662" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1662" s="4">
+        <v>1059</v>
+      </c>
+      <c r="C1662" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1662" s="16">
+        <v>23399.310000000045</v>
+      </c>
+      <c r="E1662" s="16">
+        <v>23399.310000000045</v>
+      </c>
+      <c r="F1662" s="16">
+        <v>28284.613000000572</v>
+      </c>
+      <c r="G1662" s="13">
+        <v>-0.17271945704190572</v>
+      </c>
+      <c r="H1662" s="14">
+        <v>1.8639153508948035E-2</v>
+      </c>
+      <c r="I1662" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1662" s="10">
+        <v>273</v>
+      </c>
+      <c r="K1662" s="11">
+        <v>85.711758241758403</v>
+      </c>
+      <c r="L1662" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1663" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1663" s="4">
+        <v>1063</v>
+      </c>
+      <c r="C1663" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1663" s="16">
+        <v>15056.999999999922</v>
+      </c>
+      <c r="E1663" s="16">
+        <v>15056.999999999922</v>
+      </c>
+      <c r="F1663" s="16">
+        <v>15241.278999999959</v>
+      </c>
+      <c r="G1663" s="13">
+        <v>-1.2090783194772414E-2</v>
+      </c>
+      <c r="H1663" s="14">
+        <v>1.1993932059715802E-2</v>
+      </c>
+      <c r="I1663" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1663" s="10">
+        <v>236</v>
+      </c>
+      <c r="K1663" s="11">
+        <v>63.800847457626787</v>
+      </c>
+      <c r="L1663" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1664" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1664" s="4">
+        <v>1065</v>
+      </c>
+      <c r="C1664" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1664" s="16">
+        <v>12841.009999999922</v>
+      </c>
+      <c r="E1664" s="16">
+        <v>12841.009999999922</v>
+      </c>
+      <c r="F1664" s="16">
+        <v>15142.887999999941</v>
+      </c>
+      <c r="G1664" s="13">
+        <v>-0.15201050156350804</v>
+      </c>
+      <c r="H1664" s="14">
+        <v>1.0228744206557155E-2</v>
+      </c>
+      <c r="I1664" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1664" s="10">
+        <v>232</v>
+      </c>
+      <c r="K1664" s="11">
+        <v>55.34918103448242</v>
+      </c>
+      <c r="L1664" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1665" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1665" s="4">
+        <v>1013</v>
+      </c>
+      <c r="C1665" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1665" s="16">
+        <v>28502.590000000197</v>
+      </c>
+      <c r="E1665" s="16">
+        <v>28502.590000000197</v>
+      </c>
+      <c r="F1665" s="16">
+        <v>29712.087000000705</v>
+      </c>
+      <c r="G1665" s="13">
+        <v>-4.0707238101466259E-2</v>
+      </c>
+      <c r="H1665" s="14">
+        <v>2.2704265656235581E-2</v>
+      </c>
+      <c r="I1665" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1665" s="10">
+        <v>401</v>
+      </c>
+      <c r="K1665" s="11">
+        <v>71.078778054863335</v>
+      </c>
+      <c r="L1665" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1666" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1666" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C1666" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1666" s="16">
+        <v>17851.319999999971</v>
+      </c>
+      <c r="E1666" s="16">
+        <v>17851.319999999971</v>
+      </c>
+      <c r="F1666" s="16">
+        <v>15143.09599999992</v>
+      </c>
+      <c r="G1666" s="13">
+        <v>0.17884216015008203</v>
+      </c>
+      <c r="H1666" s="14">
+        <v>1.4219799379441234E-2</v>
+      </c>
+      <c r="I1666" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1666" s="10">
+        <v>163</v>
+      </c>
+      <c r="K1666" s="11">
+        <v>109.51730061349676</v>
+      </c>
+      <c r="L1666" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1667" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1667" s="4">
+        <v>1066</v>
+      </c>
+      <c r="C1667" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1667" s="16">
+        <v>30096.250000000131</v>
+      </c>
+      <c r="E1667" s="16">
+        <v>30096.250000000131</v>
+      </c>
+      <c r="F1667" s="16">
+        <v>30843.829000000613</v>
+      </c>
+      <c r="G1667" s="13">
+        <v>-2.423755494171842E-2</v>
+      </c>
+      <c r="H1667" s="14">
+        <v>2.3973725028373857E-2</v>
+      </c>
+      <c r="I1667" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1667" s="10">
+        <v>373</v>
+      </c>
+      <c r="K1667" s="11">
+        <v>80.6869973190352</v>
+      </c>
+      <c r="L1667" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1668" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1668" s="4">
+        <v>1061</v>
+      </c>
+      <c r="C1668" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1668" s="16">
+        <v>8361.7599999999657</v>
+      </c>
+      <c r="E1668" s="16">
+        <v>8361.7599999999657</v>
+      </c>
+      <c r="F1668" s="16">
+        <v>9378.5139999999519</v>
+      </c>
+      <c r="G1668" s="13">
+        <v>-0.10841312387015589</v>
+      </c>
+      <c r="H1668" s="14">
+        <v>6.6607147067576089E-3</v>
+      </c>
+      <c r="I1668" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1668" s="10">
+        <v>97</v>
+      </c>
+      <c r="K1668" s="11">
+        <v>86.203711340205828</v>
+      </c>
+      <c r="L1668" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1669" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1669" s="4">
+        <v>1023</v>
+      </c>
+      <c r="C1669" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1669" s="16">
+        <v>7636.8199999999724</v>
+      </c>
+      <c r="E1669" s="16">
+        <v>7636.8199999999724</v>
+      </c>
+      <c r="F1669" s="16">
+        <v>9711.0339999999887</v>
+      </c>
+      <c r="G1669" s="13">
+        <v>-0.21359352670374943</v>
+      </c>
+      <c r="H1669" s="14">
+        <v>6.0832503308945324E-3</v>
+      </c>
+      <c r="I1669" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1669" s="10">
+        <v>122</v>
+      </c>
+      <c r="K1669" s="11">
+        <v>62.596885245901412</v>
+      </c>
+      <c r="L1669" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1670" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1670" s="4">
+        <v>1068</v>
+      </c>
+      <c r="C1670" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1670" s="16">
+        <v>14531.339999999915</v>
+      </c>
+      <c r="E1670" s="16">
+        <v>14531.339999999915</v>
+      </c>
+      <c r="F1670" s="16">
+        <v>17592.729999999963</v>
+      </c>
+      <c r="G1670" s="13">
+        <v>-0.17401449348680131</v>
+      </c>
+      <c r="H1670" s="14">
+        <v>1.1575207856587003E-2</v>
+      </c>
+      <c r="I1670" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1670" s="10">
+        <v>255</v>
+      </c>
+      <c r="K1670" s="11">
+        <v>56.985647058823197</v>
+      </c>
+      <c r="L1670" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1671" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1671" s="4">
+        <v>1017</v>
+      </c>
+      <c r="C1671" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1671" s="16">
+        <v>19017.189999999966</v>
+      </c>
+      <c r="E1671" s="16">
+        <v>19017.189999999966</v>
+      </c>
+      <c r="F1671" s="16">
+        <v>23734.241000000293</v>
+      </c>
+      <c r="G1671" s="13">
+        <v>-0.19874454801399666</v>
+      </c>
+      <c r="H1671" s="14">
+        <v>1.5148494708554661E-2</v>
+      </c>
+      <c r="I1671" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1671" s="10">
+        <v>157</v>
+      </c>
+      <c r="K1671" s="11">
+        <v>121.12859872611443</v>
+      </c>
+      <c r="L1671" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1672" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1672" s="4">
+        <v>1040</v>
+      </c>
+      <c r="C1672" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1672" s="16">
+        <v>20462.039999999972</v>
+      </c>
+      <c r="E1672" s="16">
+        <v>20462.039999999972</v>
+      </c>
+      <c r="F1672" s="16">
+        <v>22782.055000000484</v>
+      </c>
+      <c r="G1672" s="13">
+        <v>-0.10183519441070887</v>
+      </c>
+      <c r="H1672" s="14">
+        <v>1.6299416720673976E-2</v>
+      </c>
+      <c r="I1672" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1672" s="10">
+        <v>322</v>
+      </c>
+      <c r="K1672" s="11">
+        <v>63.546708074534074</v>
+      </c>
+      <c r="L1672" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1673" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1673" s="4">
+        <v>1027</v>
+      </c>
+      <c r="C1673" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1673" s="16">
+        <v>62892.150000000147</v>
+      </c>
+      <c r="E1673" s="16">
+        <v>62892.150000000147</v>
+      </c>
+      <c r="F1673" s="16">
+        <v>57435.991000000016</v>
+      </c>
+      <c r="G1673" s="13">
+        <v>9.4995470697112783E-2</v>
+      </c>
+      <c r="H1673" s="14">
+        <v>5.0097906235602105E-2</v>
+      </c>
+      <c r="I1673" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1673" s="10">
+        <v>322</v>
+      </c>
+      <c r="K1673" s="11">
+        <v>195.31723602484519</v>
+      </c>
+      <c r="L1673" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1674" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1674" s="4">
+        <v>1044</v>
+      </c>
+      <c r="C1674" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1674" s="16">
+        <v>10518.209999999959</v>
+      </c>
+      <c r="E1674" s="16">
+        <v>10518.209999999959</v>
+      </c>
+      <c r="F1674" s="16">
+        <v>18013.640000000163</v>
+      </c>
+      <c r="G1674" s="13">
+        <v>-0.41609746836287032</v>
+      </c>
+      <c r="H1674" s="14">
+        <v>8.3784748708124798E-3</v>
+      </c>
+      <c r="I1674" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1674" s="10">
+        <v>216</v>
+      </c>
+      <c r="K1674" s="11">
+        <v>48.695416666666475</v>
+      </c>
+      <c r="L1674" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1675" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1675" s="4">
+        <v>1048</v>
+      </c>
+      <c r="C1675" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1675" s="16">
+        <v>28331.13000000015</v>
+      </c>
+      <c r="E1675" s="16">
+        <v>28331.13000000015</v>
+      </c>
+      <c r="F1675" s="16">
+        <v>33916.196000000302</v>
+      </c>
+      <c r="G1675" s="13">
+        <v>-0.16467253579971353</v>
+      </c>
+      <c r="H1675" s="14">
+        <v>2.2567686019458039E-2</v>
+      </c>
+      <c r="I1675" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1675" s="10">
+        <v>275</v>
+      </c>
+      <c r="K1675" s="11">
+        <v>103.02229090909145</v>
+      </c>
+      <c r="L1675" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1676" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1676" s="4">
+        <v>1031</v>
+      </c>
+      <c r="C1676" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1676" s="16">
+        <v>57865.609999999964</v>
+      </c>
+      <c r="E1676" s="16">
+        <v>57865.609999999964</v>
+      </c>
+      <c r="F1676" s="16">
+        <v>68495.343000000837</v>
+      </c>
+      <c r="G1676" s="13">
+        <v>-0.15518913453723038</v>
+      </c>
+      <c r="H1676" s="14">
+        <v>4.6093922755795609E-2</v>
+      </c>
+      <c r="I1676" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1676" s="10">
+        <v>536</v>
+      </c>
+      <c r="K1676" s="11">
+        <v>107.95822761194023</v>
+      </c>
+      <c r="L1676" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1677" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1677" s="4">
+        <v>1042</v>
+      </c>
+      <c r="C1677" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1677" s="16">
+        <v>14497.889999999916</v>
+      </c>
+      <c r="E1677" s="16">
+        <v>14497.889999999916</v>
+      </c>
+      <c r="F1677" s="16">
+        <v>17165.808000000052</v>
+      </c>
+      <c r="G1677" s="13">
+        <v>-0.15542047307066043</v>
+      </c>
+      <c r="H1677" s="14">
+        <v>1.1548562639917184E-2</v>
+      </c>
+      <c r="I1677" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1677" s="10">
+        <v>130</v>
+      </c>
+      <c r="K1677" s="11">
+        <v>111.52223076923012</v>
+      </c>
+      <c r="L1677" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1678" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1678" s="4">
+        <v>1025</v>
+      </c>
+      <c r="C1678" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1678" s="16">
+        <v>22205.550000000039</v>
+      </c>
+      <c r="E1678" s="16">
+        <v>22205.550000000039</v>
+      </c>
+      <c r="F1678" s="16">
+        <v>26644.279000000635</v>
+      </c>
+      <c r="G1678" s="13">
+        <v>-0.16659219789736068</v>
+      </c>
+      <c r="H1678" s="14">
+        <v>1.7688241884082093E-2</v>
+      </c>
+      <c r="I1678" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1678" s="10">
+        <v>359</v>
+      </c>
+      <c r="K1678" s="11">
+        <v>61.853899721448578</v>
+      </c>
+      <c r="L1678" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1679" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1679" s="4">
+        <v>1067</v>
+      </c>
+      <c r="C1679" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1679" s="16">
+        <v>25349.570000000138</v>
+      </c>
+      <c r="E1679" s="16">
+        <v>25349.570000000138</v>
+      </c>
+      <c r="F1679" s="16">
+        <v>25500.886000000595</v>
+      </c>
+      <c r="G1679" s="13">
+        <v>-5.9337546154456522E-3</v>
+      </c>
+      <c r="H1679" s="14">
+        <v>2.0192669211862465E-2</v>
+      </c>
+      <c r="I1679" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1679" s="10">
+        <v>418</v>
+      </c>
+      <c r="K1679" s="11">
+        <v>60.644904306220425</v>
+      </c>
+      <c r="L1679" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1680" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1680" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C1680" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1680" s="16">
+        <v>60212.999999999971</v>
+      </c>
+      <c r="E1680" s="16">
+        <v>60212.999999999971</v>
+      </c>
+      <c r="F1680" s="16">
+        <v>67222.768000000404</v>
+      </c>
+      <c r="G1680" s="13">
+        <v>-0.10427669387253424</v>
+      </c>
+      <c r="H1680" s="14">
+        <v>4.7963779711208805E-2</v>
+      </c>
+      <c r="I1680" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1680" s="10">
+        <v>337</v>
+      </c>
+      <c r="K1680" s="11">
+        <v>178.67359050445094</v>
+      </c>
+      <c r="L1680" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1681" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1681" s="4">
+        <v>1010</v>
+      </c>
+      <c r="C1681" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1681" s="16">
+        <v>9621.899999999956</v>
+      </c>
+      <c r="E1681" s="16">
+        <v>9621.899999999956</v>
+      </c>
+      <c r="F1681" s="16">
+        <v>8663.8869999999879</v>
+      </c>
+      <c r="G1681" s="13">
+        <v>0.11057542648005092</v>
+      </c>
+      <c r="H1681" s="14">
+        <v>7.6645025493378193E-3</v>
+      </c>
+      <c r="I1681" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1681" s="10">
+        <v>125</v>
+      </c>
+      <c r="K1681" s="11">
+        <v>76.975199999999646</v>
+      </c>
+      <c r="L1681" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1682" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1682" s="4">
+        <v>1032</v>
+      </c>
+      <c r="C1682" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1682" s="16">
+        <v>16644.429999999913</v>
+      </c>
+      <c r="E1682" s="16">
+        <v>16644.429999999913</v>
+      </c>
+      <c r="F1682" s="16">
+        <v>19316.947000000215</v>
+      </c>
+      <c r="G1682" s="13">
+        <v>-0.13835089986012139</v>
+      </c>
+      <c r="H1682" s="14">
+        <v>1.3258428810034899E-2</v>
+      </c>
+      <c r="I1682" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1682" s="10">
+        <v>211</v>
+      </c>
+      <c r="K1682" s="11">
+        <v>78.88355450236925</v>
+      </c>
+      <c r="L1682" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1683" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1683" s="4">
+        <v>1054</v>
+      </c>
+      <c r="C1683" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1683" s="16">
+        <v>32112.830000000209</v>
+      </c>
+      <c r="E1683" s="16">
+        <v>32112.830000000209</v>
+      </c>
+      <c r="F1683" s="16">
+        <v>41379.703999999889</v>
+      </c>
+      <c r="G1683" s="13">
+        <v>-0.22394732451444566</v>
+      </c>
+      <c r="H1683" s="14">
+        <v>2.5580069154891937E-2</v>
+      </c>
+      <c r="I1683" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1683" s="10">
+        <v>312</v>
+      </c>
+      <c r="K1683" s="11">
+        <v>102.92573717948785</v>
+      </c>
+      <c r="L1683" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1684" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1684" s="4">
+        <v>1033</v>
+      </c>
+      <c r="C1684" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1684" s="16">
+        <v>59264.769999999822</v>
+      </c>
+      <c r="E1684" s="16">
+        <v>59264.769999999822</v>
+      </c>
+      <c r="F1684" s="16">
+        <v>64511.658999999854</v>
+      </c>
+      <c r="G1684" s="13">
+        <v>-8.133241465701635E-2</v>
+      </c>
+      <c r="H1684" s="14">
+        <v>4.7208449552678812E-2</v>
+      </c>
+      <c r="I1684" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1684" s="10">
+        <v>436</v>
+      </c>
+      <c r="K1684" s="11">
+        <v>135.92837155963261</v>
+      </c>
+      <c r="L1684" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1685" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1685" s="4">
+        <v>1062</v>
+      </c>
+      <c r="C1685" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1685" s="16">
+        <v>5991.3099999999695</v>
+      </c>
+      <c r="E1685" s="16">
+        <v>5991.3099999999695</v>
+      </c>
+      <c r="F1685" s="16">
+        <v>6102.4429999999729</v>
+      </c>
+      <c r="G1685" s="13">
+        <v>-1.8211231141364803E-2</v>
+      </c>
+      <c r="H1685" s="14">
+        <v>4.7724888814967047E-3</v>
+      </c>
+      <c r="I1685" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1685" s="10">
+        <v>67</v>
+      </c>
+      <c r="K1685" s="11">
+        <v>89.422537313432386</v>
+      </c>
+      <c r="L1685" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1686" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1686" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C1686" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1686" s="16">
+        <v>49802.000000000131</v>
+      </c>
+      <c r="E1686" s="16">
+        <v>49802.000000000131</v>
+      </c>
+      <c r="F1686" s="16">
+        <v>53960.218999999983</v>
+      </c>
+      <c r="G1686" s="13">
+        <v>-7.7060825123779653E-2</v>
+      </c>
+      <c r="H1686" s="14">
+        <v>3.9670704950386597E-2</v>
+      </c>
+      <c r="I1686" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1686" s="10">
+        <v>245</v>
+      </c>
+      <c r="K1686" s="11">
+        <v>203.27346938775563</v>
+      </c>
+      <c r="L1686" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1687" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1687" s="4">
+        <v>1024</v>
+      </c>
+      <c r="C1687" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1687" s="16">
+        <v>25321.750000000131</v>
+      </c>
+      <c r="E1687" s="16">
+        <v>25321.750000000131</v>
+      </c>
+      <c r="F1687" s="16">
+        <v>36774.897000000055</v>
+      </c>
+      <c r="G1687" s="13">
+        <v>-0.31143926793322918</v>
+      </c>
+      <c r="H1687" s="14">
+        <v>2.0170508675905675E-2</v>
+      </c>
+      <c r="I1687" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1687" s="10">
+        <v>374</v>
+      </c>
+      <c r="K1687" s="11">
+        <v>67.705213903743669</v>
+      </c>
+      <c r="L1687" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1688" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1688" s="4">
+        <v>1058</v>
+      </c>
+      <c r="C1688" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1688" s="16">
+        <v>17799.079999999973</v>
+      </c>
+      <c r="E1688" s="16">
+        <v>17799.079999999973</v>
+      </c>
+      <c r="F1688" s="16">
+        <v>25586.597000000344</v>
+      </c>
+      <c r="G1688" s="13">
+        <v>-0.30435923151485389</v>
+      </c>
+      <c r="H1688" s="14">
+        <v>1.4178186640462716E-2</v>
+      </c>
+      <c r="I1688" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1688" s="10">
+        <v>302</v>
+      </c>
+      <c r="K1688" s="11">
+        <v>58.937350993377393</v>
+      </c>
+      <c r="L1688" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1689" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1689" s="4">
+        <v>1053</v>
+      </c>
+      <c r="C1689" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1689" s="16">
+        <v>20711.490000000005</v>
+      </c>
+      <c r="E1689" s="16">
+        <v>20711.490000000005</v>
+      </c>
+      <c r="F1689" s="16">
+        <v>27588.468000000499</v>
+      </c>
+      <c r="G1689" s="13">
+        <v>-0.24927002108273533</v>
+      </c>
+      <c r="H1689" s="14">
+        <v>1.6498120735570471E-2</v>
+      </c>
+      <c r="I1689" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1689" s="10">
+        <v>219</v>
+      </c>
+      <c r="K1689" s="11">
+        <v>94.573013698630163</v>
+      </c>
+      <c r="L1689" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1690" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1690" s="4">
+        <v>1028</v>
+      </c>
+      <c r="C1690" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1690" s="16">
+        <v>38553.380000000165</v>
+      </c>
+      <c r="E1690" s="16">
+        <v>38553.380000000165</v>
+      </c>
+      <c r="F1690" s="16">
+        <v>58960.887000000002</v>
+      </c>
+      <c r="G1690" s="13">
+        <v>-0.34611940285090759</v>
+      </c>
+      <c r="H1690" s="14">
+        <v>3.0710408473959644E-2</v>
+      </c>
+      <c r="I1690" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1690" s="10">
+        <v>414</v>
+      </c>
+      <c r="K1690" s="11">
+        <v>93.124106280193629</v>
+      </c>
+      <c r="L1690" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1691" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1691" s="4">
+        <v>1026</v>
+      </c>
+      <c r="C1691" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1691" s="16">
+        <v>7672.9299999999903</v>
+      </c>
+      <c r="E1691" s="16">
+        <v>7672.9299999999903</v>
+      </c>
+      <c r="F1691" s="16">
+        <v>14722.080000000011</v>
+      </c>
+      <c r="G1691" s="13">
+        <v>-0.47881481421103644</v>
+      </c>
+      <c r="H1691" s="14">
+        <v>6.1120144198017886E-3</v>
+      </c>
+      <c r="I1691" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1691" s="10">
+        <v>255</v>
+      </c>
+      <c r="K1691" s="11">
+        <v>30.089921568627414</v>
+      </c>
+      <c r="L1691" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1692" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1692" s="4">
+        <v>1052</v>
+      </c>
+      <c r="C1692" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1692" s="16">
+        <v>4221.0399999999818</v>
+      </c>
+      <c r="E1692" s="16">
+        <v>4221.0399999999818</v>
+      </c>
+      <c r="F1692" s="16">
+        <v>4946.1739999999636</v>
+      </c>
+      <c r="G1692" s="13">
+        <v>-0.14660503249582146</v>
+      </c>
+      <c r="H1692" s="14">
+        <v>3.3623475447527949E-3</v>
+      </c>
+      <c r="I1692" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1692" s="10">
+        <v>125</v>
+      </c>
+      <c r="K1692" s="11">
+        <v>33.768319999999854</v>
+      </c>
+      <c r="L1692" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1693" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1693" s="4">
+        <v>1060</v>
+      </c>
+      <c r="C1693" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1693" s="16">
+        <v>20759.529999999995</v>
+      </c>
+      <c r="E1693" s="16">
+        <v>20759.529999999995</v>
+      </c>
+      <c r="F1693" s="16">
+        <v>19397.264000000236</v>
+      </c>
+      <c r="G1693" s="13">
+        <v>7.0229801481267895E-2</v>
+      </c>
+      <c r="H1693" s="14">
+        <v>1.6536387886805688E-2</v>
+      </c>
+      <c r="I1693" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1693" s="10">
+        <v>344</v>
+      </c>
+      <c r="K1693" s="11">
+        <v>60.347470930232546</v>
+      </c>
+      <c r="L1693" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1694" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1694" s="4">
+        <v>1016</v>
+      </c>
+      <c r="C1694" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1694" s="16">
+        <v>70279.019999999975</v>
+      </c>
+      <c r="E1694" s="16">
+        <v>70279.019999999975</v>
+      </c>
+      <c r="F1694" s="16">
+        <v>68854.908000000665</v>
+      </c>
+      <c r="G1694" s="13">
+        <v>2.0682795771062468E-2</v>
+      </c>
+      <c r="H1694" s="14">
+        <v>5.59820542673449E-2</v>
+      </c>
+      <c r="I1694" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1694" s="10">
+        <v>628</v>
+      </c>
+      <c r="K1694" s="11">
+        <v>111.90926751592353</v>
+      </c>
+      <c r="L1694" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1695" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1695" s="4">
+        <v>1055</v>
+      </c>
+      <c r="C1695" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1695" s="16">
+        <v>15402.089999999926</v>
+      </c>
+      <c r="E1695" s="16">
+        <v>15402.089999999926</v>
+      </c>
+      <c r="F1695" s="16">
+        <v>14226.151999999967</v>
+      </c>
+      <c r="G1695" s="13">
+        <v>8.2660300550701393E-2</v>
+      </c>
+      <c r="H1695" s="14">
+        <v>1.2268819886938183E-2</v>
+      </c>
+      <c r="I1695" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1695" s="10">
+        <v>290</v>
+      </c>
+      <c r="K1695" s="11">
+        <v>53.110655172413537</v>
+      </c>
+      <c r="L1695" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1696" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1696" s="4">
+        <v>1056</v>
+      </c>
+      <c r="C1696" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1696" s="16">
+        <v>4816.6899999999823</v>
+      </c>
+      <c r="E1696" s="16">
+        <v>4816.6899999999823</v>
+      </c>
+      <c r="F1696" s="16">
+        <v>5285.3629999999757</v>
+      </c>
+      <c r="G1696" s="13">
+        <v>-8.8673758074893971E-2</v>
+      </c>
+      <c r="H1696" s="14">
+        <v>3.8368235779180841E-3</v>
+      </c>
+      <c r="I1696" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1696" s="10">
+        <v>95</v>
+      </c>
+      <c r="K1696" s="11">
+        <v>50.701999999999813</v>
+      </c>
+      <c r="L1696" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1697" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1697" s="4">
+        <v>1015</v>
+      </c>
+      <c r="C1697" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1697" s="16">
+        <v>42365.230000000076</v>
+      </c>
+      <c r="E1697" s="16">
+        <v>42365.230000000076</v>
+      </c>
+      <c r="F1697" s="16">
+        <v>50510.269999999793</v>
+      </c>
+      <c r="G1697" s="13">
+        <v>-0.16125512692764754</v>
+      </c>
+      <c r="H1697" s="14">
+        <v>3.3746808149979227E-2</v>
+      </c>
+      <c r="I1697" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1697" s="10">
+        <v>350</v>
+      </c>
+      <c r="K1697" s="11">
+        <v>121.04351428571451</v>
+      </c>
+      <c r="L1697" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1698" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1698" s="4">
+        <v>1049</v>
+      </c>
+      <c r="C1698" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1698" s="16">
+        <v>25176.210000000079</v>
+      </c>
+      <c r="E1698" s="16">
+        <v>25176.210000000079</v>
+      </c>
+      <c r="F1698" s="16">
+        <v>25132.800000000567</v>
+      </c>
+      <c r="G1698" s="13">
+        <v>1.7272249808819584E-3</v>
+      </c>
+      <c r="H1698" s="14">
+        <v>2.0054576094915327E-2</v>
+      </c>
+      <c r="I1698" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1698" s="10">
+        <v>293</v>
+      </c>
+      <c r="K1698" s="11">
+        <v>85.92563139931768</v>
+      </c>
+      <c r="L1698" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1699" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1699" s="4">
+        <v>1029</v>
+      </c>
+      <c r="C1699" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1699" s="16">
+        <v>26450.390000000079</v>
+      </c>
+      <c r="E1699" s="16">
+        <v>26450.390000000079</v>
+      </c>
+      <c r="F1699" s="16">
+        <v>30968.237000000514</v>
+      </c>
+      <c r="G1699" s="13">
+        <v>-0.14588647716692293</v>
+      </c>
+      <c r="H1699" s="14">
+        <v>2.1069547759380278E-2</v>
+      </c>
+      <c r="I1699" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1699" s="10">
+        <v>310</v>
+      </c>
+      <c r="K1699" s="11">
+        <v>85.323838709677673</v>
+      </c>
+      <c r="L1699" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1700" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1700" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C1700" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1700" s="16">
+        <v>65157.409999999982</v>
+      </c>
+      <c r="E1700" s="16">
+        <v>65157.409999999982</v>
+      </c>
+      <c r="F1700" s="16">
+        <v>73942.226000002076</v>
+      </c>
+      <c r="G1700" s="13">
+        <v>-0.11880648548505757</v>
+      </c>
+      <c r="H1700" s="14">
+        <v>5.1902341019263519E-2</v>
+      </c>
+      <c r="I1700" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1700" s="10">
+        <v>553</v>
+      </c>
+      <c r="K1700" s="11">
+        <v>117.82533453887881</v>
+      </c>
+      <c r="L1700" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1701" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1701" s="4">
+        <v>1057</v>
+      </c>
+      <c r="C1701" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1701" s="16">
+        <v>8758.4599999999882</v>
+      </c>
+      <c r="E1701" s="16">
+        <v>8758.4599999999882</v>
+      </c>
+      <c r="F1701" s="16">
+        <v>13649.115000000023</v>
+      </c>
+      <c r="G1701" s="13">
+        <v>-0.35831297487053382</v>
+      </c>
+      <c r="H1701" s="14">
+        <v>6.9767134347970289E-3</v>
+      </c>
+      <c r="I1701" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1701" s="10">
+        <v>257</v>
+      </c>
+      <c r="K1701" s="11">
+        <v>34.079610894941588</v>
+      </c>
+      <c r="L1701" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1702" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1702" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C1702" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1702" s="16">
+        <v>14580.779999999924</v>
+      </c>
+      <c r="E1702" s="16">
+        <v>14580.779999999924</v>
+      </c>
+      <c r="F1702" s="16">
+        <v>19295.340000000186</v>
+      </c>
+      <c r="G1702" s="13">
+        <v>-0.24433671549712088</v>
+      </c>
+      <c r="H1702" s="14">
+        <v>1.1614590203736666E-2</v>
+      </c>
+      <c r="I1702" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1702" s="10">
+        <v>183</v>
+      </c>
+      <c r="K1702" s="11">
+        <v>79.67639344262254</v>
+      </c>
+      <c r="L1702" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1703" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1703" s="4">
+        <v>1012</v>
+      </c>
+      <c r="C1703" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1703" s="16">
+        <v>28869.240000000198</v>
+      </c>
+      <c r="E1703" s="16">
+        <v>28869.240000000198</v>
+      </c>
+      <c r="F1703" s="16">
+        <v>39172.137999999941</v>
+      </c>
+      <c r="G1703" s="13">
+        <v>-0.26301597324097448</v>
+      </c>
+      <c r="H1703" s="14">
+        <v>2.2996327500540214E-2</v>
+      </c>
+      <c r="I1703" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1703" s="10">
+        <v>296</v>
+      </c>
+      <c r="K1703" s="11">
+        <v>97.53121621621689</v>
+      </c>
+      <c r="L1703" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1704" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1704" s="4">
+        <v>1014</v>
+      </c>
+      <c r="C1704" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1704" s="16">
+        <v>19514.329999999962</v>
+      </c>
+      <c r="E1704" s="16">
+        <v>19514.329999999962</v>
+      </c>
+      <c r="F1704" s="16">
+        <v>27238.137986335503</v>
+      </c>
+      <c r="G1704" s="13">
+        <v>-0.28356593208428293</v>
+      </c>
+      <c r="H1704" s="14">
+        <v>1.5544500777769451E-2</v>
+      </c>
+      <c r="I1704" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1704" s="10">
+        <v>178</v>
+      </c>
+      <c r="K1704" s="11">
+        <v>109.63106741573012</v>
+      </c>
+      <c r="L1704" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1705" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1705" s="4">
+        <v>1045</v>
+      </c>
+      <c r="C1705" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1705" s="16">
+        <v>0</v>
+      </c>
+      <c r="E1705" s="16">
+        <v>0</v>
+      </c>
+      <c r="F1705" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1705" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1705" s="14">
+        <v>0</v>
+      </c>
+      <c r="I1705" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1705" s="10">
+        <v>178</v>
+      </c>
+      <c r="K1705" s="11">
+        <v>0</v>
+      </c>
+      <c r="L1705" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1706" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1706" s="4">
+        <v>1050</v>
+      </c>
+      <c r="C1706" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1706" s="16">
+        <v>4982.7999999999884</v>
+      </c>
+      <c r="E1706" s="16">
+        <v>4982.7999999999884</v>
+      </c>
+      <c r="F1706" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1706" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1706" s="14">
+        <v>3.4391835825649227E-3</v>
+      </c>
+      <c r="I1706" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1706" s="10">
+        <v>178</v>
+      </c>
+      <c r="K1706" s="11">
+        <v>27.993258426966225</v>
+      </c>
+      <c r="L1706" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1707" s="24">
+        <v>32</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1707" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1707" s="18">
+        <f>SUM(D1653:D1706)</f>
+        <v>1255384.800000001</v>
+      </c>
+      <c r="E1707" s="18">
+        <f>SUM(E1653:E1706)</f>
+        <v>1255384.800000001</v>
+      </c>
+      <c r="F1707" s="18">
+        <f>SUM(F1653:F1706)</f>
+        <v>1468321.7239863474</v>
+      </c>
+      <c r="G1707" s="19">
+        <v>0</v>
+      </c>
+      <c r="H1707" s="20">
+        <v>0</v>
+      </c>
+      <c r="I1707">
+        <v>0</v>
+      </c>
+      <c r="J1707" s="21">
+        <v>0</v>
+      </c>
+      <c r="K1707" s="22">
+        <v>0</v>
+      </c>
+      <c r="L1707">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G54">
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G108:G212 G267:G318 G214:G265">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="G108:G212 G214:G265 G267:G318">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G479:G531">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G585:G637">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="G584:G637">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1009:G1060">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1380:G1652">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G584">
+  <conditionalFormatting sqref="G1653:G1706">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1707">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
